--- a/Results/TinyMPC CDC benchmarks/Safety Filter/Safety Filter STM32 OSQP Problem 3.xlsx
+++ b/Results/TinyMPC CDC benchmarks/Safety Filter/Safety Filter STM32 OSQP Problem 3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>iterations</t>
   </si>
@@ -110,6 +110,9 @@
     <t>n horizon = 4</t>
   </si>
   <si>
+    <t>n horizon = 8</t>
+  </si>
+  <si>
     <t>n horizon = 10</t>
   </si>
   <si>
@@ -122,13 +125,25 @@
     <t>n horizon = 30</t>
   </si>
   <si>
+    <t>n horizon = 32</t>
+  </si>
+  <si>
     <t>n horizon = 40</t>
   </si>
   <si>
     <t>n horizon = 50</t>
   </si>
   <si>
+    <t>n horizon = 64</t>
+  </si>
+  <si>
+    <t>n horizon = 100</t>
+  </si>
+  <si>
     <t>Sketch uses 217432 bytes (20%) of program storage space. Maximum is 1048576 bytes.</t>
+  </si>
+  <si>
+    <t>Sketch uses 225920 bytes (21%) of program storage space. Maximum is 1048576 bytes.</t>
   </si>
   <si>
     <t>Sketch uses 230160 bytes (21%) of program storage space. Maximum is 1048576 bytes.</t>
@@ -146,6 +161,9 @@
     <t>Global variables use 28116 bytes (21%) of dynamic memory, leaving 102956 bytes for local variables. Maximum is 131072 bytes.</t>
   </si>
   <si>
+    <t>Global variables use 44996 bytes (34%) of dynamic memory, leaving 86076 bytes for local variables. Maximum is 131072 bytes.</t>
+  </si>
+  <si>
     <t>Global variables use 53436 bytes (40%) of dynamic memory, leaving 77636 bytes for local variables. Maximum is 131072 bytes.</t>
   </si>
   <si>
@@ -158,13 +176,25 @@
     <t>/Users/elakhyanedumaran/Library/Arduino15/packages/STMicroelectronics/tools/xpack-arm-none-eabi-gcc/12.2.1-1.2/bin/../lib/gcc/arm-none-eabi/12.2.1/../../../../arm-none-eabi/bin/ld: region `RAM' overflowed by 8304 bytes</t>
   </si>
   <si>
+    <t>/Users/elakhyanedumaran/Library/Arduino15/packages/STMicroelectronics/tools/xpack-arm-none-eabi-gcc/12.2.1-1.2/bin/../lib/gcc/arm-none-eabi/12.2.1/../../../../arm-none-eabi/bin/ld: region `RAM' overflowed by 16744 bytes</t>
+  </si>
+  <si>
     <t>/Users/elakhyanedumaran/Library/Arduino15/packages/STMicroelectronics/tools/xpack-arm-none-eabi-gcc/12.2.1-1.2/bin/../lib/gcc/arm-none-eabi/12.2.1/../../../../arm-none-eabi/bin/ld: region `RAM' overflowed by 50504 bytes</t>
   </si>
   <si>
     <t>/Users/elakhyanedumaran/Library/Arduino15/packages/STMicroelectronics/tools/xpack-arm-none-eabi-gcc/12.2.1-1.2/bin/../lib/gcc/arm-none-eabi/12.2.1/../../../../arm-none-eabi/bin/ld: region `RAM' overflowed by 92704 bytes</t>
   </si>
   <si>
+    <t>/Users/elakhyanedumaran/Library/Arduino15/packages/STMicroelectronics/tools/xpack-arm-none-eabi-gcc/12.2.1-1.2/bin/../lib/gcc/arm-none-eabi/12.2.1/../../../../arm-none-eabi/bin/ld: region `RAM' overflowed by 151784 bytes</t>
+  </si>
+  <si>
+    <t>/Users/elakhyanedumaran/Library/Arduino15/packages/STMicroelectronics/tools/xpack-arm-none-eabi-gcc/12.2.1-1.2/bin/../lib/gcc/arm-none-eabi/12.2.1/../../../../arm-none-eabi/bin/ld: region `RAM' overflowed by 303704 bytes</t>
+  </si>
+  <si>
     <t>Size          : 212.80 KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Size          : 221.09 KB </t>
   </si>
   <si>
     <t>Size          : 225.23 KB</t>
@@ -180,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -203,6 +233,10 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -218,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border/>
     <border>
       <left style="thin">
@@ -250,11 +284,16 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -269,13 +308,19 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -597,7 +642,7 @@
       <c r="B3" s="5">
         <v>2210.0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="5">
@@ -606,7 +651,7 @@
       <c r="E3" s="5">
         <v>4392.0</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="5">
@@ -615,7 +660,7 @@
       <c r="H3" s="5">
         <v>8083.0</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="5"/>
@@ -626,7 +671,7 @@
       <c r="N3" s="5">
         <v>15995.0</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="5"/>
@@ -635,10 +680,10 @@
       <c r="T3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AD3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -649,7 +694,7 @@
       <c r="B4" s="5">
         <v>1444.0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="5">
@@ -658,7 +703,7 @@
       <c r="E4" s="5">
         <v>2850.0</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="5">
@@ -667,7 +712,7 @@
       <c r="H4" s="5">
         <v>5222.0</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="5"/>
@@ -678,7 +723,7 @@
       <c r="N4" s="5">
         <v>11190.0</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="P4" s="5"/>
@@ -687,10 +732,10 @@
       <c r="T4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
-      <c r="AA4" s="6" t="s">
+      <c r="AA4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AD4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -701,7 +746,7 @@
       <c r="B5" s="5">
         <v>1557.0</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="5">
@@ -710,7 +755,7 @@
       <c r="E5" s="5">
         <v>3096.0</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="5">
@@ -719,7 +764,7 @@
       <c r="H5" s="5">
         <v>5702.0</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="5"/>
@@ -730,7 +775,7 @@
       <c r="N5" s="5">
         <v>11377.0</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="P5" s="5"/>
@@ -739,10 +784,10 @@
       <c r="T5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
-      <c r="AA5" s="6" t="s">
+      <c r="AA5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AD5" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7369,6 +7414,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -7406,6 +7457,26 @@
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="4"/>
+      <c r="V2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="5">
@@ -7414,46 +7485,64 @@
       <c r="B3" s="5">
         <v>3109.0</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>38</v>
+      <c r="C3" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D3" s="5">
         <v>7.0</v>
       </c>
       <c r="E3" s="5">
-        <v>10046.0</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
+        <v>8027.0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="G3" s="5">
         <v>7.0</v>
       </c>
       <c r="H3" s="5">
+        <v>10046.0</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="K3" s="5">
         <v>16288.0</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="L3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="5">
         <v>16.0</v>
       </c>
-      <c r="K3" s="5">
+      <c r="N3" s="5">
         <v>51727.0</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>42</v>
+      <c r="O3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -7463,46 +7552,64 @@
       <c r="B4" s="5">
         <v>2561.0</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>43</v>
+      <c r="C4" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D4" s="5">
         <v>5.0</v>
       </c>
       <c r="E4" s="5">
-        <v>6495.0</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>44</v>
+        <v>5165.0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="G4" s="5">
         <v>5.0</v>
       </c>
       <c r="H4" s="5">
-        <v>11429.0</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>45</v>
+        <v>6495.0</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="J4" s="5">
         <v>5.0</v>
       </c>
       <c r="K4" s="5">
+        <v>11429.0</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N4" s="5">
         <v>15763.0</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>49</v>
+      <c r="O4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -7512,38 +7619,48 @@
       <c r="B5" s="5">
         <v>2569.0</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>50</v>
+      <c r="C5" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="D5" s="5">
         <v>5.0</v>
       </c>
       <c r="E5" s="5">
-        <v>7147.0</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>51</v>
+        <v>5217.0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="G5" s="5">
         <v>5.0</v>
       </c>
       <c r="H5" s="5">
+        <v>7147.0</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="K5" s="5">
         <v>11422.0</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="L5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="5">
         <v>21.0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="N5" s="5">
         <v>67467.0</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="O5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="AD5" s="10"/>
     </row>
     <row r="6">
       <c r="A6" s="5">
@@ -7556,22 +7673,29 @@
         <v>5.0</v>
       </c>
       <c r="E6" s="5">
+        <v>5238.0</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="H6" s="5">
         <v>7131.0</v>
       </c>
-      <c r="G6" s="5">
+      <c r="J6" s="5">
         <v>23.0</v>
       </c>
-      <c r="H6" s="5">
+      <c r="K6" s="5">
         <v>53519.0</v>
       </c>
-      <c r="J6" s="5">
+      <c r="M6" s="5">
         <v>21.0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="N6" s="5">
         <v>67455.0</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="5">
@@ -7581,25 +7705,32 @@
         <v>2173.0</v>
       </c>
       <c r="D7" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4493.0</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
         <v>5.0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="H7" s="5">
         <v>7110.0</v>
       </c>
-      <c r="G7" s="5">
+      <c r="J7" s="5">
         <v>27.0</v>
       </c>
-      <c r="H7" s="5">
+      <c r="K7" s="5">
         <v>62953.0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="M7" s="5">
         <v>24.0</v>
       </c>
-      <c r="K7" s="5">
+      <c r="N7" s="5">
         <v>77306.0</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="5">
@@ -7612,22 +7743,29 @@
         <v>4.0</v>
       </c>
       <c r="E8" s="5">
+        <v>4495.0</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="H8" s="5">
         <v>5645.0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="J8" s="5">
         <v>11.0</v>
       </c>
-      <c r="H8" s="5">
+      <c r="K8" s="5">
         <v>25506.0</v>
       </c>
-      <c r="J8" s="5">
+      <c r="M8" s="5">
         <v>25.0</v>
       </c>
-      <c r="K8" s="5">
+      <c r="N8" s="5">
         <v>80598.0</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="5">
@@ -7640,22 +7778,29 @@
         <v>4.0</v>
       </c>
       <c r="E9" s="5">
+        <v>4495.0</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="H9" s="5">
         <v>5598.0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="J9" s="5">
         <v>6.0</v>
       </c>
-      <c r="H9" s="5">
+      <c r="K9" s="5">
         <v>12917.0</v>
       </c>
-      <c r="J9" s="5">
+      <c r="M9" s="5">
         <v>28.0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="N9" s="5">
         <v>90289.0</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="5">
@@ -7665,25 +7810,32 @@
         <v>2190.0</v>
       </c>
       <c r="D10" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4461.0</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
         <v>5.0</v>
       </c>
-      <c r="E10" s="5">
+      <c r="H10" s="5">
         <v>6538.0</v>
       </c>
-      <c r="G10" s="5">
+      <c r="J10" s="5">
         <v>6.0</v>
       </c>
-      <c r="H10" s="5">
+      <c r="K10" s="5">
         <v>13954.0</v>
       </c>
-      <c r="J10" s="5">
+      <c r="M10" s="5">
         <v>33.0</v>
       </c>
-      <c r="K10" s="5">
+      <c r="N10" s="5">
         <v>106257.0</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="5">
@@ -7693,25 +7845,32 @@
         <v>2190.0</v>
       </c>
       <c r="D11" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4459.0</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
         <v>38.0</v>
       </c>
-      <c r="E11" s="5">
+      <c r="H11" s="5">
         <v>55143.0</v>
       </c>
-      <c r="G11" s="5">
+      <c r="J11" s="5">
         <v>80.0</v>
       </c>
-      <c r="H11" s="5">
+      <c r="K11" s="5">
         <v>187697.0</v>
       </c>
-      <c r="J11" s="5">
+      <c r="M11" s="5">
         <v>42.0</v>
       </c>
-      <c r="K11" s="5">
+      <c r="N11" s="5">
         <v>135616.0</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="5">
@@ -7721,25 +7880,32 @@
         <v>2190.0</v>
       </c>
       <c r="D12" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5207.0</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
         <v>99.0</v>
       </c>
-      <c r="E12" s="5">
+      <c r="H12" s="5">
         <v>143889.0</v>
       </c>
-      <c r="G12" s="5">
+      <c r="J12" s="5">
         <v>36.0</v>
       </c>
-      <c r="H12" s="5">
+      <c r="K12" s="5">
         <v>84575.0</v>
       </c>
-      <c r="J12" s="5">
+      <c r="M12" s="5">
         <v>52.0</v>
       </c>
-      <c r="K12" s="5">
+      <c r="N12" s="5">
         <v>167992.0</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="5">
@@ -7749,25 +7915,32 @@
         <v>1957.0</v>
       </c>
       <c r="D13" s="5">
+        <v>126.0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>145504.0</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
         <v>81.0</v>
       </c>
-      <c r="E13" s="5">
+      <c r="H13" s="5">
         <v>117742.0</v>
       </c>
-      <c r="G13" s="5">
+      <c r="J13" s="5">
         <v>60.0</v>
       </c>
-      <c r="H13" s="5">
+      <c r="K13" s="5">
         <v>140731.0</v>
       </c>
-      <c r="J13" s="5">
+      <c r="M13" s="5">
         <v>64.0</v>
       </c>
-      <c r="K13" s="5">
+      <c r="N13" s="5">
         <v>206877.0</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="5">
@@ -7777,25 +7950,32 @@
         <v>1974.0</v>
       </c>
       <c r="D14" s="5">
+        <v>139.0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>160871.0</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
         <v>58.0</v>
       </c>
-      <c r="E14" s="5">
+      <c r="H14" s="5">
         <v>84320.0</v>
       </c>
-      <c r="G14" s="5">
+      <c r="J14" s="5">
         <v>68.0</v>
       </c>
-      <c r="H14" s="5">
+      <c r="K14" s="5">
         <v>159605.0</v>
       </c>
-      <c r="J14" s="5">
+      <c r="M14" s="5">
         <v>217.0</v>
       </c>
-      <c r="K14" s="5">
+      <c r="N14" s="5">
         <v>701027.0</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="5">
@@ -7805,25 +7985,32 @@
         <v>1972.0</v>
       </c>
       <c r="D15" s="5">
+        <v>105.0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>121360.0</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
         <v>26.0</v>
       </c>
-      <c r="E15" s="5">
+      <c r="H15" s="5">
         <v>37875.0</v>
       </c>
-      <c r="G15" s="5">
+      <c r="J15" s="5">
         <v>63.0</v>
       </c>
-      <c r="H15" s="5">
+      <c r="K15" s="5">
         <v>147789.0</v>
       </c>
-      <c r="J15" s="5">
+      <c r="M15" s="5">
         <v>128.0</v>
       </c>
-      <c r="K15" s="5">
+      <c r="N15" s="5">
         <v>414431.0</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="5">
@@ -7833,25 +8020,32 @@
         <v>2573.0</v>
       </c>
       <c r="D16" s="5">
+        <v>58.0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>67113.0</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
         <v>20.0</v>
       </c>
-      <c r="E16" s="5">
+      <c r="H16" s="5">
         <v>29172.0</v>
       </c>
-      <c r="G16" s="5">
+      <c r="J16" s="5">
         <v>77.0</v>
       </c>
-      <c r="H16" s="5">
+      <c r="K16" s="5">
         <v>180533.0</v>
       </c>
-      <c r="J16" s="5">
+      <c r="M16" s="5">
         <v>149.0</v>
       </c>
-      <c r="K16" s="5">
+      <c r="N16" s="5">
         <v>482566.0</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="5">
@@ -7861,25 +8055,32 @@
         <v>184387.0</v>
       </c>
       <c r="D17" s="5">
+        <v>24.0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>27796.0</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
         <v>138.0</v>
       </c>
-      <c r="E17" s="5">
+      <c r="H17" s="5">
         <v>200912.0</v>
       </c>
-      <c r="G17" s="5">
+      <c r="J17" s="5">
         <v>78.0</v>
       </c>
-      <c r="H17" s="5">
+      <c r="K17" s="5">
         <v>182638.0</v>
       </c>
-      <c r="J17" s="5">
+      <c r="M17" s="5">
         <v>103.0</v>
       </c>
-      <c r="K17" s="5">
+      <c r="N17" s="5">
         <v>333856.0</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="5">
@@ -7889,25 +8090,32 @@
         <v>157243.0</v>
       </c>
       <c r="D18" s="5">
+        <v>89.0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>103192.0</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
         <v>130.0</v>
       </c>
-      <c r="E18" s="5">
+      <c r="H18" s="5">
         <v>189327.0</v>
       </c>
-      <c r="G18" s="5">
+      <c r="J18" s="5">
         <v>93.0</v>
       </c>
-      <c r="H18" s="5">
+      <c r="K18" s="5">
         <v>217622.0</v>
       </c>
-      <c r="J18" s="5">
+      <c r="M18" s="5">
         <v>115.0</v>
       </c>
-      <c r="K18" s="5">
+      <c r="N18" s="5">
         <v>373002.0</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="5">
@@ -7917,25 +8125,32 @@
         <v>88554.0</v>
       </c>
       <c r="D19" s="5">
+        <v>153.0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>177698.0</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
         <v>59.0</v>
       </c>
-      <c r="E19" s="5">
+      <c r="H19" s="5">
         <v>85964.0</v>
       </c>
-      <c r="G19" s="5">
+      <c r="J19" s="5">
         <v>340.0</v>
       </c>
-      <c r="H19" s="5">
+      <c r="K19" s="5">
         <v>796791.0</v>
       </c>
-      <c r="J19" s="5">
+      <c r="M19" s="5">
         <v>108.0</v>
       </c>
-      <c r="K19" s="5">
+      <c r="N19" s="5">
         <v>350395.0</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="5">
@@ -7945,25 +8160,32 @@
         <v>44188.0</v>
       </c>
       <c r="D20" s="5">
+        <v>125.0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>145544.0</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
         <v>71.0</v>
       </c>
-      <c r="E20" s="5">
+      <c r="H20" s="5">
         <v>103568.0</v>
       </c>
-      <c r="G20" s="5">
+      <c r="J20" s="5">
         <v>421.0</v>
       </c>
-      <c r="H20" s="5">
+      <c r="K20" s="5">
         <v>989002.0</v>
       </c>
-      <c r="J20" s="5">
+      <c r="M20" s="5">
         <v>14.0</v>
       </c>
-      <c r="K20" s="5">
+      <c r="N20" s="5">
         <v>45575.0</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="5">
@@ -7973,25 +8195,32 @@
         <v>21617.0</v>
       </c>
       <c r="D21" s="5">
+        <v>117.0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>136410.0</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
         <v>107.0</v>
       </c>
-      <c r="E21" s="5">
+      <c r="H21" s="5">
         <v>156100.0</v>
       </c>
-      <c r="G21" s="5">
+      <c r="J21" s="5">
         <v>362.0</v>
       </c>
-      <c r="H21" s="5">
+      <c r="K21" s="5">
         <v>850487.0</v>
       </c>
-      <c r="J21" s="5">
+      <c r="M21" s="5">
         <v>101.0</v>
       </c>
-      <c r="K21" s="5">
+      <c r="N21" s="5">
         <v>328825.0</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="5">
@@ -8001,25 +8230,32 @@
         <v>40903.0</v>
       </c>
       <c r="D22" s="5">
+        <v>51.0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>59014.0</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5">
         <v>81.0</v>
       </c>
-      <c r="E22" s="5">
+      <c r="H22" s="5">
         <v>118025.0</v>
       </c>
-      <c r="G22" s="5">
+      <c r="J22" s="5">
         <v>235.0</v>
       </c>
-      <c r="H22" s="5">
+      <c r="K22" s="5">
         <v>552050.0</v>
       </c>
-      <c r="J22" s="5">
+      <c r="M22" s="5">
         <v>21.0</v>
       </c>
-      <c r="K22" s="5">
+      <c r="N22" s="5">
         <v>68468.0</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="5">
@@ -8029,25 +8265,32 @@
         <v>284736.0</v>
       </c>
       <c r="D23" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>116268.0</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5">
         <v>79.0</v>
       </c>
-      <c r="E23" s="5">
+      <c r="H23" s="5">
         <v>115110.0</v>
       </c>
-      <c r="G23" s="5">
+      <c r="J23" s="5">
         <v>166.0</v>
       </c>
-      <c r="H23" s="5">
+      <c r="K23" s="5">
         <v>389929.0</v>
       </c>
-      <c r="J23" s="5">
+      <c r="M23" s="5">
         <v>44.0</v>
       </c>
-      <c r="K23" s="5">
+      <c r="N23" s="5">
         <v>142427.0</v>
       </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="5">
@@ -8057,25 +8300,32 @@
         <v>27858.0</v>
       </c>
       <c r="D24" s="5">
-        <v>500.0</v>
+        <v>48.0</v>
       </c>
       <c r="E24" s="5">
+        <v>55645.0</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H24" s="5">
         <v>729081.0</v>
       </c>
-      <c r="G24" s="5">
+      <c r="J24" s="5">
         <v>114.0</v>
       </c>
-      <c r="H24" s="5">
+      <c r="K24" s="5">
         <v>267904.0</v>
       </c>
-      <c r="J24" s="5">
+      <c r="M24" s="5">
         <v>46.0</v>
       </c>
-      <c r="K24" s="5">
+      <c r="N24" s="5">
         <v>149807.0</v>
       </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="5">
@@ -8085,25 +8335,32 @@
         <v>46484.0</v>
       </c>
       <c r="D25" s="5">
-        <v>500.0</v>
+        <v>59.0</v>
       </c>
       <c r="E25" s="5">
+        <v>68572.0</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H25" s="5">
         <v>730190.0</v>
       </c>
-      <c r="G25" s="5">
+      <c r="J25" s="5">
         <v>83.0</v>
       </c>
-      <c r="H25" s="5">
+      <c r="K25" s="5">
         <v>200798.0</v>
       </c>
-      <c r="J25" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K25" s="5">
+      <c r="M25" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N25" s="5">
         <v>1633974.0</v>
       </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="5">
@@ -8116,22 +8373,29 @@
         <v>500.0</v>
       </c>
       <c r="E26" s="5">
+        <v>582228.0</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H26" s="5">
         <v>727440.0</v>
       </c>
-      <c r="G26" s="5">
+      <c r="J26" s="5">
         <v>63.0</v>
       </c>
-      <c r="H26" s="5">
+      <c r="K26" s="5">
         <v>156656.0</v>
       </c>
-      <c r="J26" s="5">
+      <c r="M26" s="5">
         <v>150.0</v>
       </c>
-      <c r="K26" s="5">
+      <c r="N26" s="5">
         <v>488847.0</v>
       </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="5">
@@ -8144,22 +8408,29 @@
         <v>500.0</v>
       </c>
       <c r="E27" s="5">
+        <v>581897.0</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H27" s="5">
         <v>725590.0</v>
       </c>
-      <c r="G27" s="5">
+      <c r="J27" s="5">
         <v>52.0</v>
       </c>
-      <c r="H27" s="5">
+      <c r="K27" s="5">
         <v>129437.0</v>
       </c>
-      <c r="J27" s="5">
+      <c r="M27" s="5">
         <v>306.0</v>
       </c>
-      <c r="K27" s="5">
+      <c r="N27" s="5">
         <v>998873.0</v>
       </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="5">
@@ -8172,22 +8443,29 @@
         <v>500.0</v>
       </c>
       <c r="E28" s="5">
+        <v>580459.0</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H28" s="5">
         <v>764238.0</v>
       </c>
-      <c r="G28" s="5">
+      <c r="J28" s="5">
         <v>52.0</v>
       </c>
-      <c r="H28" s="5">
+      <c r="K28" s="5">
         <v>129647.0</v>
       </c>
-      <c r="J28" s="5">
+      <c r="M28" s="5">
         <v>400.0</v>
       </c>
-      <c r="K28" s="5">
+      <c r="N28" s="5">
         <v>1305352.0</v>
       </c>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="5">
@@ -8200,22 +8478,29 @@
         <v>500.0</v>
       </c>
       <c r="E29" s="5">
+        <v>591771.0</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H29" s="5">
         <v>781178.0</v>
       </c>
-      <c r="G29" s="5">
+      <c r="J29" s="5">
         <v>60.0</v>
       </c>
-      <c r="H29" s="5">
+      <c r="K29" s="5">
         <v>150037.0</v>
       </c>
-      <c r="J29" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K29" s="5">
+      <c r="M29" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N29" s="5">
         <v>1630409.0</v>
       </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="5">
@@ -8228,22 +8513,29 @@
         <v>500.0</v>
       </c>
       <c r="E30" s="5">
+        <v>621961.0</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H30" s="5">
         <v>782756.0</v>
       </c>
-      <c r="G30" s="5">
+      <c r="J30" s="5">
         <v>4.0</v>
       </c>
-      <c r="H30" s="5">
+      <c r="K30" s="5">
         <v>9271.0</v>
       </c>
-      <c r="J30" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="M30" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N30" s="5">
         <v>1629479.0</v>
       </c>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="5">
@@ -8256,22 +8548,29 @@
         <v>500.0</v>
       </c>
       <c r="E31" s="5">
+        <v>623691.0</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H31" s="5">
         <v>784157.0</v>
       </c>
-      <c r="G31" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H31" s="5">
+      <c r="J31" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K31" s="5">
         <v>1191448.0</v>
       </c>
-      <c r="J31" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K31" s="5">
+      <c r="M31" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N31" s="5">
         <v>1628700.0</v>
       </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="5">
@@ -8284,22 +8583,29 @@
         <v>500.0</v>
       </c>
       <c r="E32" s="5">
+        <v>625236.0</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H32" s="5">
         <v>785425.0</v>
       </c>
-      <c r="G32" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="J32" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K32" s="5">
         <v>1187929.0</v>
       </c>
-      <c r="J32" s="5">
+      <c r="M32" s="5">
         <v>434.0</v>
       </c>
-      <c r="K32" s="5">
+      <c r="N32" s="5">
         <v>1410895.0</v>
       </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="5">
@@ -8312,22 +8618,29 @@
         <v>500.0</v>
       </c>
       <c r="E33" s="5">
+        <v>627319.0</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H33" s="5">
         <v>786706.0</v>
       </c>
-      <c r="G33" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="J33" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K33" s="5">
         <v>1187943.0</v>
       </c>
-      <c r="J33" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K33" s="5">
+      <c r="M33" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N33" s="5">
         <v>1629406.0</v>
       </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="5">
@@ -8340,22 +8653,29 @@
         <v>500.0</v>
       </c>
       <c r="E34" s="5">
+        <v>628567.0</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H34" s="5">
         <v>788084.0</v>
       </c>
-      <c r="G34" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H34" s="5">
+      <c r="J34" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K34" s="5">
         <v>1188526.0</v>
       </c>
-      <c r="J34" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K34" s="5">
+      <c r="M34" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N34" s="5">
         <v>1629751.0</v>
       </c>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="5">
@@ -8368,22 +8688,29 @@
         <v>500.0</v>
       </c>
       <c r="E35" s="5">
+        <v>628852.0</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H35" s="5">
         <v>789402.0</v>
       </c>
-      <c r="G35" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="J35" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K35" s="5">
         <v>1187537.0</v>
       </c>
-      <c r="J35" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K35" s="5">
+      <c r="M35" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N35" s="5">
         <v>1627056.0</v>
       </c>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="5">
@@ -8396,22 +8723,29 @@
         <v>500.0</v>
       </c>
       <c r="E36" s="5">
+        <v>628830.0</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H36" s="5">
         <v>790254.0</v>
       </c>
-      <c r="G36" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H36" s="5">
+      <c r="J36" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K36" s="5">
         <v>1183700.0</v>
       </c>
-      <c r="J36" s="5">
+      <c r="M36" s="5">
         <v>398.0</v>
       </c>
-      <c r="K36" s="5">
+      <c r="N36" s="5">
         <v>1296378.0</v>
       </c>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="5">
@@ -8424,22 +8758,29 @@
         <v>500.0</v>
       </c>
       <c r="E37" s="5">
+        <v>628835.0</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H37" s="5">
         <v>790308.0</v>
       </c>
-      <c r="G37" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H37" s="5">
+      <c r="J37" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K37" s="5">
         <v>1181866.0</v>
       </c>
-      <c r="J37" s="5">
+      <c r="M37" s="5">
         <v>59.0</v>
       </c>
-      <c r="K37" s="5">
+      <c r="N37" s="5">
         <v>191473.0</v>
       </c>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="5">
@@ -8452,22 +8793,29 @@
         <v>500.0</v>
       </c>
       <c r="E38" s="5">
+        <v>628887.0</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H38" s="5">
         <v>790361.0</v>
       </c>
-      <c r="G38" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H38" s="5">
+      <c r="J38" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K38" s="5">
         <v>1180755.0</v>
       </c>
-      <c r="J38" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K38" s="5">
+      <c r="M38" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N38" s="5">
         <v>1630576.0</v>
       </c>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="5">
@@ -8480,22 +8828,29 @@
         <v>500.0</v>
       </c>
       <c r="E39" s="5">
+        <v>628932.0</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H39" s="5">
         <v>790335.0</v>
       </c>
-      <c r="G39" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H39" s="5">
+      <c r="J39" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K39" s="5">
         <v>1178894.0</v>
       </c>
-      <c r="J39" s="5">
+      <c r="M39" s="5">
         <v>318.0</v>
       </c>
-      <c r="K39" s="5">
+      <c r="N39" s="5">
         <v>1035179.0</v>
       </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
     </row>
     <row r="40">
       <c r="A40" s="5">
@@ -8508,22 +8863,29 @@
         <v>500.0</v>
       </c>
       <c r="E40" s="5">
+        <v>628974.0</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H40" s="5">
         <v>790014.0</v>
       </c>
-      <c r="G40" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H40" s="5">
+      <c r="J40" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K40" s="5">
         <v>1177233.0</v>
       </c>
-      <c r="J40" s="5">
+      <c r="M40" s="5">
         <v>373.0</v>
       </c>
-      <c r="K40" s="5">
+      <c r="N40" s="5">
         <v>1211919.0</v>
       </c>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
     </row>
     <row r="41">
       <c r="A41" s="5">
@@ -8536,22 +8898,29 @@
         <v>500.0</v>
       </c>
       <c r="E41" s="5">
+        <v>629005.0</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H41" s="5">
         <v>744595.0</v>
       </c>
-      <c r="G41" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H41" s="5">
+      <c r="J41" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K41" s="5">
         <v>1176923.0</v>
       </c>
-      <c r="J41" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K41" s="5">
+      <c r="M41" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N41" s="5">
         <v>1623999.0</v>
       </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
     </row>
     <row r="42">
       <c r="A42" s="5">
@@ -8564,22 +8933,29 @@
         <v>500.0</v>
       </c>
       <c r="E42" s="5">
+        <v>629003.0</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H42" s="5">
         <v>741947.0</v>
       </c>
-      <c r="G42" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H42" s="5">
+      <c r="J42" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K42" s="5">
         <v>1175847.0</v>
       </c>
-      <c r="J42" s="5">
+      <c r="M42" s="5">
         <v>214.0</v>
       </c>
-      <c r="K42" s="5">
+      <c r="N42" s="5">
         <v>693598.0</v>
       </c>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="5">
@@ -8592,22 +8968,29 @@
         <v>500.0</v>
       </c>
       <c r="E43" s="5">
+        <v>629046.0</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H43" s="5">
         <v>741749.0</v>
       </c>
-      <c r="G43" s="5">
+      <c r="J43" s="5">
         <v>463.0</v>
       </c>
-      <c r="H43" s="5">
+      <c r="K43" s="5">
         <v>1090065.0</v>
       </c>
-      <c r="J43" s="5">
+      <c r="M43" s="5">
         <v>498.0</v>
       </c>
-      <c r="K43" s="5">
+      <c r="N43" s="5">
         <v>1615960.0</v>
       </c>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
     </row>
     <row r="44">
       <c r="A44" s="5">
@@ -8620,22 +9003,29 @@
         <v>500.0</v>
       </c>
       <c r="E44" s="5">
+        <v>629156.0</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H44" s="5">
         <v>744159.0</v>
       </c>
-      <c r="G44" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H44" s="5">
+      <c r="J44" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K44" s="5">
         <v>1177132.0</v>
       </c>
-      <c r="J44" s="5">
+      <c r="M44" s="5">
         <v>151.0</v>
       </c>
-      <c r="K44" s="5">
+      <c r="N44" s="5">
         <v>490694.0</v>
       </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
     </row>
     <row r="45">
       <c r="A45" s="5">
@@ -8648,22 +9038,29 @@
         <v>500.0</v>
       </c>
       <c r="E45" s="5">
+        <v>629157.0</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H45" s="5">
         <v>743619.0</v>
       </c>
-      <c r="G45" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H45" s="5">
+      <c r="J45" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K45" s="5">
         <v>1177806.0</v>
       </c>
-      <c r="J45" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K45" s="5">
+      <c r="M45" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N45" s="5">
         <v>1624806.0</v>
       </c>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
     </row>
     <row r="46">
       <c r="A46" s="5">
@@ -8676,22 +9073,29 @@
         <v>500.0</v>
       </c>
       <c r="E46" s="5">
+        <v>628966.0</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H46" s="5">
         <v>743324.0</v>
       </c>
-      <c r="G46" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H46" s="5">
+      <c r="J46" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K46" s="5">
         <v>1176012.0</v>
       </c>
-      <c r="J46" s="5">
+      <c r="M46" s="5">
         <v>239.0</v>
       </c>
-      <c r="K46" s="5">
+      <c r="N46" s="5">
         <v>775621.0</v>
       </c>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
     </row>
     <row r="47">
       <c r="A47" s="5">
@@ -8704,22 +9108,29 @@
         <v>500.0</v>
       </c>
       <c r="E47" s="5">
+        <v>593181.0</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H47" s="5">
         <v>740702.0</v>
       </c>
-      <c r="G47" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H47" s="5">
+      <c r="J47" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K47" s="5">
         <v>1182560.0</v>
       </c>
-      <c r="J47" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K47" s="5">
+      <c r="M47" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N47" s="5">
         <v>1621112.0</v>
       </c>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
     </row>
     <row r="48">
       <c r="A48" s="5">
@@ -8732,22 +9143,29 @@
         <v>500.0</v>
       </c>
       <c r="E48" s="5">
+        <v>590626.0</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H48" s="5">
         <v>737662.0</v>
       </c>
-      <c r="G48" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H48" s="5">
+      <c r="J48" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K48" s="5">
         <v>1181507.0</v>
       </c>
-      <c r="J48" s="5">
+      <c r="M48" s="5">
         <v>465.0</v>
       </c>
-      <c r="K48" s="5">
+      <c r="N48" s="5">
         <v>1504757.0</v>
       </c>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
     </row>
     <row r="49">
       <c r="A49" s="5">
@@ -8760,22 +9178,29 @@
         <v>500.0</v>
       </c>
       <c r="E49" s="5">
+        <v>590571.0</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H49" s="5">
         <v>735459.0</v>
       </c>
-      <c r="G49" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H49" s="5">
+      <c r="J49" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K49" s="5">
         <v>1181864.0</v>
       </c>
-      <c r="J49" s="5">
+      <c r="M49" s="5">
         <v>322.0</v>
       </c>
-      <c r="K49" s="5">
+      <c r="N49" s="5">
         <v>1045375.0</v>
       </c>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
     </row>
     <row r="50">
       <c r="A50" s="5">
@@ -8788,22 +9213,29 @@
         <v>500.0</v>
       </c>
       <c r="E50" s="5">
+        <v>592472.0</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H50" s="5">
         <v>736013.0</v>
       </c>
-      <c r="G50" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H50" s="5">
+      <c r="J50" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K50" s="5">
         <v>1181297.0</v>
       </c>
-      <c r="J50" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K50" s="5">
+      <c r="M50" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N50" s="5">
         <v>1623103.0</v>
       </c>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
     </row>
     <row r="51">
       <c r="A51" s="5">
@@ -8816,22 +9248,29 @@
         <v>500.0</v>
       </c>
       <c r="E51" s="5">
+        <v>593252.0</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H51" s="5">
         <v>734611.0</v>
       </c>
-      <c r="G51" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H51" s="5">
+      <c r="J51" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K51" s="5">
         <v>1180415.0</v>
       </c>
-      <c r="J51" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K51" s="5">
+      <c r="M51" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N51" s="5">
         <v>1622190.0</v>
       </c>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
     </row>
     <row r="52">
       <c r="A52" s="5">
@@ -8844,22 +9283,29 @@
         <v>500.0</v>
       </c>
       <c r="E52" s="5">
+        <v>593881.0</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H52" s="5">
         <v>733570.0</v>
       </c>
-      <c r="G52" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H52" s="5">
+      <c r="J52" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K52" s="5">
         <v>1183949.0</v>
       </c>
-      <c r="J52" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K52" s="5">
+      <c r="M52" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N52" s="5">
         <v>1621283.0</v>
       </c>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
     </row>
     <row r="53">
       <c r="A53" s="5">
@@ -8872,22 +9318,29 @@
         <v>500.0</v>
       </c>
       <c r="E53" s="5">
+        <v>594561.0</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H53" s="5">
         <v>732753.0</v>
       </c>
-      <c r="G53" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H53" s="5">
+      <c r="J53" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K53" s="5">
         <v>1177572.0</v>
       </c>
-      <c r="J53" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K53" s="5">
+      <c r="M53" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N53" s="5">
         <v>1620158.0</v>
       </c>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
     </row>
     <row r="54">
       <c r="A54" s="5">
@@ -8900,22 +9353,29 @@
         <v>500.0</v>
       </c>
       <c r="E54" s="5">
+        <v>596883.0</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H54" s="5">
         <v>729194.0</v>
       </c>
-      <c r="G54" s="5">
+      <c r="J54" s="5">
         <v>125.0</v>
       </c>
-      <c r="H54" s="5">
+      <c r="K54" s="5">
         <v>292942.0</v>
       </c>
-      <c r="J54" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K54" s="5">
+      <c r="M54" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N54" s="5">
         <v>1617288.0</v>
       </c>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
     </row>
     <row r="55">
       <c r="A55" s="5">
@@ -8928,22 +9388,29 @@
         <v>500.0</v>
       </c>
       <c r="E55" s="5">
+        <v>596832.0</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H55" s="5">
         <v>726945.0</v>
       </c>
-      <c r="G55" s="5">
+      <c r="J55" s="5">
         <v>30.0</v>
       </c>
-      <c r="H55" s="5">
+      <c r="K55" s="5">
         <v>70198.0</v>
       </c>
-      <c r="J55" s="5">
+      <c r="M55" s="5">
         <v>90.0</v>
       </c>
-      <c r="K55" s="5">
+      <c r="N55" s="5">
         <v>290324.0</v>
       </c>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
     </row>
     <row r="56">
       <c r="A56" s="5">
@@ -8953,25 +9420,32 @@
         <v>8724.0</v>
       </c>
       <c r="D56" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>596135.0</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5">
         <v>288.0</v>
       </c>
-      <c r="E56" s="5">
+      <c r="H56" s="5">
         <v>414439.0</v>
       </c>
-      <c r="G56" s="5">
+      <c r="J56" s="5">
         <v>29.0</v>
       </c>
-      <c r="H56" s="5">
+      <c r="K56" s="5">
         <v>67847.0</v>
       </c>
-      <c r="J56" s="5">
+      <c r="M56" s="5">
         <v>5.0</v>
       </c>
-      <c r="K56" s="5">
+      <c r="N56" s="5">
         <v>14787.0</v>
       </c>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
     </row>
     <row r="57">
       <c r="A57" s="5">
@@ -8981,25 +9455,32 @@
         <v>8726.0</v>
       </c>
       <c r="D57" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>593497.0</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5">
         <v>5.0</v>
       </c>
-      <c r="E57" s="5">
+      <c r="H57" s="5">
         <v>6073.0</v>
       </c>
-      <c r="G57" s="5">
+      <c r="J57" s="5">
         <v>23.0</v>
       </c>
-      <c r="H57" s="5">
+      <c r="K57" s="5">
         <v>53762.0</v>
       </c>
-      <c r="J57" s="5">
+      <c r="M57" s="5">
         <v>81.0</v>
       </c>
-      <c r="K57" s="5">
+      <c r="N57" s="5">
         <v>262113.0</v>
       </c>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
     </row>
     <row r="58">
       <c r="A58" s="5">
@@ -9009,25 +9490,32 @@
         <v>8725.0</v>
       </c>
       <c r="D58" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>590004.0</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5">
         <v>5.0</v>
       </c>
-      <c r="E58" s="5">
+      <c r="H58" s="5">
         <v>6074.0</v>
       </c>
-      <c r="G58" s="5">
+      <c r="J58" s="5">
         <v>16.0</v>
       </c>
-      <c r="H58" s="5">
+      <c r="K58" s="5">
         <v>37305.0</v>
       </c>
-      <c r="J58" s="5">
+      <c r="M58" s="5">
         <v>94.0</v>
       </c>
-      <c r="K58" s="5">
+      <c r="N58" s="5">
         <v>304546.0</v>
       </c>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
     </row>
     <row r="59">
       <c r="A59" s="5">
@@ -9037,25 +9525,32 @@
         <v>8725.0</v>
       </c>
       <c r="D59" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>586673.0</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5">
         <v>5.0</v>
       </c>
-      <c r="E59" s="5">
+      <c r="H59" s="5">
         <v>6096.0</v>
       </c>
-      <c r="G59" s="5">
+      <c r="J59" s="5">
         <v>10.0</v>
       </c>
-      <c r="H59" s="5">
+      <c r="K59" s="5">
         <v>23249.0</v>
       </c>
-      <c r="J59" s="5">
+      <c r="M59" s="5">
         <v>64.0</v>
       </c>
-      <c r="K59" s="5">
+      <c r="N59" s="5">
         <v>207196.0</v>
       </c>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
     </row>
     <row r="60">
       <c r="A60" s="5">
@@ -9065,25 +9560,32 @@
         <v>8725.0</v>
       </c>
       <c r="D60" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>582282.0</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5">
         <v>5.0</v>
       </c>
-      <c r="E60" s="5">
+      <c r="H60" s="5">
         <v>6094.0</v>
       </c>
-      <c r="G60" s="5">
+      <c r="J60" s="5">
         <v>7.0</v>
       </c>
-      <c r="H60" s="5">
+      <c r="K60" s="5">
         <v>16266.0</v>
       </c>
-      <c r="J60" s="5">
+      <c r="M60" s="5">
         <v>17.0</v>
       </c>
-      <c r="K60" s="5">
+      <c r="N60" s="5">
         <v>55134.0</v>
       </c>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
     </row>
     <row r="61">
       <c r="A61" s="5">
@@ -9093,25 +9595,32 @@
         <v>9345.0</v>
       </c>
       <c r="D61" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>579313.0</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5">
         <v>57.0</v>
       </c>
-      <c r="E61" s="5">
+      <c r="H61" s="5">
         <v>82954.0</v>
       </c>
-      <c r="G61" s="5">
+      <c r="J61" s="5">
         <v>8.0</v>
       </c>
-      <c r="H61" s="5">
+      <c r="K61" s="5">
         <v>18662.0</v>
       </c>
-      <c r="J61" s="5">
+      <c r="M61" s="5">
         <v>59.0</v>
       </c>
-      <c r="K61" s="5">
+      <c r="N61" s="5">
         <v>191188.0</v>
       </c>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
     </row>
     <row r="62">
       <c r="A62" s="5">
@@ -9121,25 +9630,32 @@
         <v>9348.0</v>
       </c>
       <c r="D62" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E62" s="5">
+        <v>576618.0</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5">
         <v>67.0</v>
       </c>
-      <c r="E62" s="5">
+      <c r="H62" s="5">
         <v>96985.0</v>
       </c>
-      <c r="G62" s="5">
+      <c r="J62" s="5">
         <v>75.0</v>
       </c>
-      <c r="H62" s="5">
+      <c r="K62" s="5">
         <v>176323.0</v>
       </c>
-      <c r="J62" s="5">
+      <c r="M62" s="5">
         <v>53.0</v>
       </c>
-      <c r="K62" s="5">
+      <c r="N62" s="5">
         <v>171911.0</v>
       </c>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
     </row>
     <row r="63">
       <c r="A63" s="5">
@@ -9149,25 +9665,32 @@
         <v>9347.0</v>
       </c>
       <c r="D63" s="5">
+        <v>223.0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>256808.0</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5">
         <v>69.0</v>
       </c>
-      <c r="E63" s="5">
+      <c r="H63" s="5">
         <v>99977.0</v>
       </c>
-      <c r="G63" s="5">
+      <c r="J63" s="5">
         <v>88.0</v>
       </c>
-      <c r="H63" s="5">
+      <c r="K63" s="5">
         <v>207107.0</v>
       </c>
-      <c r="J63" s="5">
+      <c r="M63" s="5">
         <v>52.0</v>
       </c>
-      <c r="K63" s="5">
+      <c r="N63" s="5">
         <v>168382.0</v>
       </c>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
     </row>
     <row r="64">
       <c r="A64" s="5">
@@ -9177,25 +9700,32 @@
         <v>9348.0</v>
       </c>
       <c r="D64" s="5">
+        <v>29.0</v>
+      </c>
+      <c r="E64" s="5">
+        <v>33473.0</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5">
         <v>61.0</v>
       </c>
-      <c r="E64" s="5">
+      <c r="H64" s="5">
         <v>88476.0</v>
       </c>
-      <c r="G64" s="5">
+      <c r="J64" s="5">
         <v>98.0</v>
       </c>
-      <c r="H64" s="5">
+      <c r="K64" s="5">
         <v>230575.0</v>
       </c>
-      <c r="J64" s="5">
+      <c r="M64" s="5">
         <v>50.0</v>
       </c>
-      <c r="K64" s="5">
+      <c r="N64" s="5">
         <v>161874.0</v>
       </c>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
     </row>
     <row r="65">
       <c r="A65" s="5">
@@ -9205,25 +9735,32 @@
         <v>9348.0</v>
       </c>
       <c r="D65" s="5">
+        <v>55.0</v>
+      </c>
+      <c r="E65" s="5">
+        <v>63552.0</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5">
         <v>46.0</v>
       </c>
-      <c r="E65" s="5">
+      <c r="H65" s="5">
         <v>66855.0</v>
       </c>
-      <c r="G65" s="5">
+      <c r="J65" s="5">
         <v>92.0</v>
       </c>
-      <c r="H65" s="5">
+      <c r="K65" s="5">
         <v>216647.0</v>
       </c>
-      <c r="J65" s="5">
+      <c r="M65" s="5">
         <v>52.0</v>
       </c>
-      <c r="K65" s="5">
+      <c r="N65" s="5">
         <v>168474.0</v>
       </c>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
     </row>
     <row r="66">
       <c r="A66" s="5">
@@ -9233,25 +9770,32 @@
         <v>9349.0</v>
       </c>
       <c r="D66" s="5">
+        <v>54.0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>62612.0</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5">
         <v>39.0</v>
       </c>
-      <c r="E66" s="5">
+      <c r="H66" s="5">
         <v>56644.0</v>
       </c>
-      <c r="G66" s="5">
+      <c r="J66" s="5">
         <v>29.0</v>
       </c>
-      <c r="H66" s="5">
+      <c r="K66" s="5">
         <v>68340.0</v>
       </c>
-      <c r="J66" s="5">
+      <c r="M66" s="5">
         <v>54.0</v>
       </c>
-      <c r="K66" s="5">
+      <c r="N66" s="5">
         <v>175020.0</v>
       </c>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
     </row>
     <row r="67">
       <c r="A67" s="5">
@@ -9261,25 +9805,32 @@
         <v>9351.0</v>
       </c>
       <c r="D67" s="5">
+        <v>59.0</v>
+      </c>
+      <c r="E67" s="5">
+        <v>68414.0</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5">
         <v>26.0</v>
       </c>
-      <c r="E67" s="5">
+      <c r="H67" s="5">
         <v>37641.0</v>
       </c>
-      <c r="G67" s="5">
+      <c r="J67" s="5">
         <v>50.0</v>
       </c>
-      <c r="H67" s="5">
+      <c r="K67" s="5">
         <v>117732.0</v>
       </c>
-      <c r="J67" s="5">
+      <c r="M67" s="5">
         <v>41.0</v>
       </c>
-      <c r="K67" s="5">
+      <c r="N67" s="5">
         <v>132842.0</v>
       </c>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
     </row>
     <row r="68">
       <c r="A68" s="5">
@@ -9289,25 +9840,32 @@
         <v>9351.0</v>
       </c>
       <c r="D68" s="5">
+        <v>51.0</v>
+      </c>
+      <c r="E68" s="5">
+        <v>58993.0</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5">
         <v>16.0</v>
       </c>
-      <c r="E68" s="5">
+      <c r="H68" s="5">
         <v>23104.0</v>
       </c>
-      <c r="G68" s="5">
+      <c r="J68" s="5">
         <v>56.0</v>
       </c>
-      <c r="H68" s="5">
+      <c r="K68" s="5">
         <v>131781.0</v>
       </c>
-      <c r="J68" s="5">
+      <c r="M68" s="5">
         <v>54.0</v>
       </c>
-      <c r="K68" s="5">
+      <c r="N68" s="5">
         <v>174771.0</v>
       </c>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
     </row>
     <row r="69">
       <c r="A69" s="5">
@@ -9317,25 +9875,32 @@
         <v>9351.0</v>
       </c>
       <c r="D69" s="5">
+        <v>43.0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>49707.0</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5">
         <v>17.0</v>
       </c>
-      <c r="E69" s="5">
+      <c r="H69" s="5">
         <v>24611.0</v>
       </c>
-      <c r="G69" s="5">
+      <c r="J69" s="5">
         <v>53.0</v>
       </c>
-      <c r="H69" s="5">
+      <c r="K69" s="5">
         <v>124941.0</v>
       </c>
-      <c r="J69" s="5">
+      <c r="M69" s="5">
         <v>50.0</v>
       </c>
-      <c r="K69" s="5">
+      <c r="N69" s="5">
         <v>161963.0</v>
       </c>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
     </row>
     <row r="70">
       <c r="A70" s="5">
@@ -9345,25 +9910,32 @@
         <v>9347.0</v>
       </c>
       <c r="D70" s="5">
+        <v>37.0</v>
+      </c>
+      <c r="E70" s="5">
+        <v>42904.0</v>
+      </c>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5">
         <v>25.0</v>
       </c>
-      <c r="E70" s="5">
+      <c r="H70" s="5">
         <v>36397.0</v>
       </c>
-      <c r="G70" s="5">
+      <c r="J70" s="5">
         <v>66.0</v>
       </c>
-      <c r="H70" s="5">
+      <c r="K70" s="5">
         <v>155706.0</v>
       </c>
-      <c r="J70" s="5">
+      <c r="M70" s="5">
         <v>60.0</v>
       </c>
-      <c r="K70" s="5">
+      <c r="N70" s="5">
         <v>194469.0</v>
       </c>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
     </row>
     <row r="71">
       <c r="A71" s="5">
@@ -9373,25 +9945,32 @@
         <v>9345.0</v>
       </c>
       <c r="D71" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="E71" s="5">
+        <v>31396.0</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5">
         <v>107.0</v>
       </c>
-      <c r="E71" s="5">
+      <c r="H71" s="5">
         <v>156426.0</v>
       </c>
-      <c r="G71" s="5">
+      <c r="J71" s="5">
         <v>83.0</v>
       </c>
-      <c r="H71" s="5">
+      <c r="K71" s="5">
         <v>195780.0</v>
       </c>
-      <c r="J71" s="5">
+      <c r="M71" s="5">
         <v>74.0</v>
       </c>
-      <c r="K71" s="5">
+      <c r="N71" s="5">
         <v>240541.0</v>
       </c>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
     </row>
     <row r="72">
       <c r="A72" s="5">
@@ -9401,25 +9980,32 @@
         <v>9344.0</v>
       </c>
       <c r="D72" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="E72" s="5">
+        <v>22122.0</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5">
         <v>81.0</v>
       </c>
-      <c r="E72" s="5">
+      <c r="H72" s="5">
         <v>118520.0</v>
       </c>
-      <c r="G72" s="5">
+      <c r="J72" s="5">
         <v>49.0</v>
       </c>
-      <c r="H72" s="5">
+      <c r="K72" s="5">
         <v>115799.0</v>
       </c>
-      <c r="J72" s="5">
+      <c r="M72" s="5">
         <v>36.0</v>
       </c>
-      <c r="K72" s="5">
+      <c r="N72" s="5">
         <v>117302.0</v>
       </c>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
     </row>
     <row r="73">
       <c r="A73" s="5">
@@ -9429,25 +10015,32 @@
         <v>9343.0</v>
       </c>
       <c r="D73" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="E73" s="5">
+        <v>15139.0</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5">
         <v>71.0</v>
       </c>
-      <c r="E73" s="5">
+      <c r="H73" s="5">
         <v>104188.0</v>
       </c>
-      <c r="G73" s="5">
+      <c r="J73" s="5">
         <v>32.0</v>
       </c>
-      <c r="H73" s="5">
+      <c r="K73" s="5">
         <v>75475.0</v>
       </c>
-      <c r="J73" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K73" s="5">
+      <c r="M73" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N73" s="5">
         <v>1622929.0</v>
       </c>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
     </row>
     <row r="74">
       <c r="A74" s="5">
@@ -9457,25 +10050,32 @@
         <v>9344.0</v>
       </c>
       <c r="D74" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="E74" s="5">
+        <v>24507.0</v>
+      </c>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5">
         <v>61.0</v>
       </c>
-      <c r="E74" s="5">
+      <c r="H74" s="5">
         <v>89621.0</v>
       </c>
-      <c r="G74" s="5">
+      <c r="J74" s="5">
         <v>22.0</v>
       </c>
-      <c r="H74" s="5">
+      <c r="K74" s="5">
         <v>51846.0</v>
       </c>
-      <c r="J74" s="5">
+      <c r="M74" s="5">
         <v>4.0</v>
       </c>
-      <c r="K74" s="5">
+      <c r="N74" s="5">
         <v>11390.0</v>
       </c>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
     </row>
     <row r="75">
       <c r="A75" s="5">
@@ -9485,25 +10085,32 @@
         <v>9344.0</v>
       </c>
       <c r="D75" s="5">
+        <v>31.0</v>
+      </c>
+      <c r="E75" s="5">
+        <v>36336.0</v>
+      </c>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5">
         <v>56.0</v>
       </c>
-      <c r="E75" s="5">
+      <c r="H75" s="5">
         <v>82379.0</v>
       </c>
-      <c r="G75" s="5">
+      <c r="J75" s="5">
         <v>21.0</v>
       </c>
-      <c r="H75" s="5">
+      <c r="K75" s="5">
         <v>49269.0</v>
       </c>
-      <c r="J75" s="5">
+      <c r="M75" s="5">
         <v>4.0</v>
       </c>
-      <c r="K75" s="5">
+      <c r="N75" s="5">
         <v>11393.0</v>
       </c>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
     </row>
     <row r="76">
       <c r="A76" s="5">
@@ -9513,25 +10120,32 @@
         <v>9343.0</v>
       </c>
       <c r="D76" s="5">
+        <v>42.0</v>
+      </c>
+      <c r="E76" s="5">
+        <v>49199.0</v>
+      </c>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5">
         <v>53.0</v>
       </c>
-      <c r="E76" s="5">
+      <c r="H76" s="5">
         <v>77880.0</v>
       </c>
-      <c r="G76" s="5">
+      <c r="J76" s="5">
         <v>20.0</v>
       </c>
-      <c r="H76" s="5">
+      <c r="K76" s="5">
         <v>47057.0</v>
       </c>
-      <c r="J76" s="5">
+      <c r="M76" s="5">
         <v>4.0</v>
       </c>
-      <c r="K76" s="5">
+      <c r="N76" s="5">
         <v>11305.0</v>
       </c>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
     </row>
     <row r="77">
       <c r="A77" s="5">
@@ -9541,25 +10155,32 @@
         <v>9342.0</v>
       </c>
       <c r="D77" s="5">
+        <v>37.0</v>
+      </c>
+      <c r="E77" s="5">
+        <v>43264.0</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5">
         <v>51.0</v>
       </c>
-      <c r="E77" s="5">
+      <c r="H77" s="5">
         <v>74883.0</v>
       </c>
-      <c r="G77" s="5">
+      <c r="J77" s="5">
         <v>25.0</v>
       </c>
-      <c r="H77" s="5">
+      <c r="K77" s="5">
         <v>58577.0</v>
       </c>
-      <c r="J77" s="5">
+      <c r="M77" s="5">
         <v>4.0</v>
       </c>
-      <c r="K77" s="5">
+      <c r="N77" s="5">
         <v>11318.0</v>
       </c>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
     </row>
     <row r="78">
       <c r="A78" s="5">
@@ -9569,25 +10190,32 @@
         <v>9342.0</v>
       </c>
       <c r="D78" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E78" s="5">
+        <v>585173.0</v>
+      </c>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5">
         <v>51.0</v>
       </c>
-      <c r="E78" s="5">
+      <c r="H78" s="5">
         <v>74804.0</v>
-      </c>
-      <c r="G78" s="5">
-        <v>39.0</v>
-      </c>
-      <c r="H78" s="5">
-        <v>91334.0</v>
       </c>
       <c r="J78" s="5">
         <v>39.0</v>
       </c>
       <c r="K78" s="5">
+        <v>91334.0</v>
+      </c>
+      <c r="M78" s="5">
+        <v>39.0</v>
+      </c>
+      <c r="N78" s="5">
         <v>125008.0</v>
       </c>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
     </row>
     <row r="79">
       <c r="A79" s="5">
@@ -9597,25 +10225,32 @@
         <v>9343.0</v>
       </c>
       <c r="D79" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E79" s="5">
+        <v>4091.0</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5">
         <v>55.0</v>
       </c>
-      <c r="E79" s="5">
+      <c r="H79" s="5">
         <v>80680.0</v>
       </c>
-      <c r="G79" s="5">
+      <c r="J79" s="5">
         <v>33.0</v>
       </c>
-      <c r="H79" s="5">
+      <c r="K79" s="5">
         <v>77284.0</v>
       </c>
-      <c r="J79" s="5">
+      <c r="M79" s="5">
         <v>48.0</v>
       </c>
-      <c r="K79" s="5">
+      <c r="N79" s="5">
         <v>155134.0</v>
       </c>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
     </row>
     <row r="80">
       <c r="A80" s="5">
@@ -9625,25 +10260,32 @@
         <v>9345.0</v>
       </c>
       <c r="D80" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E80" s="5">
+        <v>8039.0</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5">
         <v>35.0</v>
       </c>
-      <c r="E80" s="5">
+      <c r="H80" s="5">
         <v>51065.0</v>
       </c>
-      <c r="G80" s="5">
+      <c r="J80" s="5">
         <v>4.0</v>
       </c>
-      <c r="H80" s="5">
+      <c r="K80" s="5">
         <v>8187.0</v>
       </c>
-      <c r="J80" s="5">
-        <v>13.0</v>
-      </c>
-      <c r="K80" s="5">
+      <c r="M80" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="N80" s="5">
         <v>41695.0</v>
       </c>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
     </row>
     <row r="81">
       <c r="A81" s="5">
@@ -9653,25 +10295,32 @@
         <v>9347.0</v>
       </c>
       <c r="D81" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="E81" s="5">
+        <v>19718.0</v>
+      </c>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5">
         <v>4.0</v>
       </c>
-      <c r="E81" s="5">
+      <c r="H81" s="5">
         <v>5043.0</v>
       </c>
-      <c r="G81" s="5">
+      <c r="J81" s="5">
         <v>29.0</v>
       </c>
-      <c r="H81" s="5">
+      <c r="K81" s="5">
         <v>67815.0</v>
       </c>
-      <c r="J81" s="5">
+      <c r="M81" s="5">
         <v>26.0</v>
       </c>
-      <c r="K81" s="5">
+      <c r="N81" s="5">
         <v>83984.0</v>
       </c>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
     </row>
     <row r="82">
       <c r="A82" s="5">
@@ -9681,25 +10330,32 @@
         <v>9347.0</v>
       </c>
       <c r="D82" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="E82" s="5">
+        <v>29049.0</v>
+      </c>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5">
         <v>20.0</v>
       </c>
-      <c r="E82" s="5">
+      <c r="H82" s="5">
         <v>29014.0</v>
       </c>
-      <c r="G82" s="5">
+      <c r="J82" s="5">
         <v>36.0</v>
       </c>
-      <c r="H82" s="5">
+      <c r="K82" s="5">
         <v>84262.0</v>
       </c>
-      <c r="J82" s="5">
+      <c r="M82" s="5">
         <v>42.0</v>
       </c>
-      <c r="K82" s="5">
+      <c r="N82" s="5">
         <v>135660.0</v>
       </c>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
     </row>
     <row r="83">
       <c r="A83" s="5">
@@ -9709,25 +10365,32 @@
         <v>9347.0</v>
       </c>
       <c r="D83" s="5">
+        <v>38.0</v>
+      </c>
+      <c r="E83" s="5">
+        <v>44299.0</v>
+      </c>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5">
         <v>30.0</v>
       </c>
-      <c r="E83" s="5">
+      <c r="H83" s="5">
         <v>43659.0</v>
       </c>
-      <c r="G83" s="5">
+      <c r="J83" s="5">
         <v>41.0</v>
       </c>
-      <c r="H83" s="5">
+      <c r="K83" s="5">
         <v>96104.0</v>
       </c>
-      <c r="J83" s="5">
+      <c r="M83" s="5">
         <v>46.0</v>
       </c>
-      <c r="K83" s="5">
+      <c r="N83" s="5">
         <v>148721.0</v>
       </c>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
     </row>
     <row r="84">
       <c r="A84" s="5">
@@ -9737,25 +10400,32 @@
         <v>9347.0</v>
       </c>
       <c r="D84" s="5">
+        <v>56.0</v>
+      </c>
+      <c r="E84" s="5">
+        <v>65228.0</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5">
         <v>40.0</v>
       </c>
-      <c r="E84" s="5">
+      <c r="H84" s="5">
         <v>58371.0</v>
       </c>
-      <c r="G84" s="5">
+      <c r="J84" s="5">
         <v>14.0</v>
       </c>
-      <c r="H84" s="5">
+      <c r="K84" s="5">
         <v>32627.0</v>
       </c>
-      <c r="J84" s="5">
+      <c r="M84" s="5">
         <v>24.0</v>
       </c>
-      <c r="K84" s="5">
+      <c r="N84" s="5">
         <v>77412.0</v>
       </c>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
     </row>
     <row r="85">
       <c r="A85" s="5">
@@ -9765,25 +10435,32 @@
         <v>9347.0</v>
       </c>
       <c r="D85" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="E85" s="5">
+        <v>24607.0</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5">
         <v>48.0</v>
       </c>
-      <c r="E85" s="5">
+      <c r="H85" s="5">
         <v>70045.0</v>
       </c>
-      <c r="G85" s="5">
+      <c r="J85" s="5">
         <v>32.0</v>
       </c>
-      <c r="H85" s="5">
+      <c r="K85" s="5">
         <v>74912.0</v>
       </c>
-      <c r="J85" s="5">
+      <c r="M85" s="5">
         <v>80.0</v>
       </c>
-      <c r="K85" s="5">
+      <c r="N85" s="5">
         <v>260115.0</v>
       </c>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
     </row>
     <row r="86">
       <c r="A86" s="5">
@@ -9793,25 +10470,32 @@
         <v>9345.0</v>
       </c>
       <c r="D86" s="5">
+        <v>23.0</v>
+      </c>
+      <c r="E86" s="5">
+        <v>26945.0</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5">
         <v>35.0</v>
       </c>
-      <c r="E86" s="5">
+      <c r="H86" s="5">
         <v>50889.0</v>
       </c>
-      <c r="G86" s="5">
+      <c r="J86" s="5">
         <v>38.0</v>
       </c>
-      <c r="H86" s="5">
+      <c r="K86" s="5">
         <v>89129.0</v>
       </c>
-      <c r="J86" s="5">
+      <c r="M86" s="5">
         <v>173.0</v>
       </c>
-      <c r="K86" s="5">
+      <c r="N86" s="5">
         <v>564098.0</v>
       </c>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
     </row>
     <row r="87">
       <c r="A87" s="5">
@@ -9821,25 +10505,32 @@
         <v>9343.0</v>
       </c>
       <c r="D87" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="E87" s="5">
+        <v>58011.0</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5">
         <v>48.0</v>
       </c>
-      <c r="E87" s="5">
+      <c r="H87" s="5">
         <v>69885.0</v>
       </c>
-      <c r="G87" s="5">
+      <c r="J87" s="5">
         <v>427.0</v>
       </c>
-      <c r="H87" s="5">
+      <c r="K87" s="5">
         <v>1009422.0</v>
       </c>
-      <c r="J87" s="5">
+      <c r="M87" s="5">
         <v>173.0</v>
       </c>
-      <c r="K87" s="5">
+      <c r="N87" s="5">
         <v>562821.0</v>
       </c>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
     </row>
     <row r="88">
       <c r="A88" s="5">
@@ -9849,25 +10540,32 @@
         <v>9345.0</v>
       </c>
       <c r="D88" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="E88" s="5">
+        <v>40213.0</v>
+      </c>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5">
         <v>50.0</v>
       </c>
-      <c r="E88" s="5">
+      <c r="H88" s="5">
         <v>72271.0</v>
       </c>
-      <c r="G88" s="5">
+      <c r="J88" s="5">
         <v>434.0</v>
       </c>
-      <c r="H88" s="5">
+      <c r="K88" s="5">
         <v>1021177.0</v>
       </c>
-      <c r="J88" s="5">
+      <c r="M88" s="5">
         <v>164.0</v>
       </c>
-      <c r="K88" s="5">
+      <c r="N88" s="5">
         <v>533498.0</v>
       </c>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
     </row>
     <row r="89">
       <c r="A89" s="5">
@@ -9880,22 +10578,29 @@
         <v>500.0</v>
       </c>
       <c r="E89" s="5">
+        <v>584187.0</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H89" s="5">
         <v>732502.0</v>
       </c>
-      <c r="G89" s="5">
+      <c r="J89" s="5">
         <v>309.0</v>
       </c>
-      <c r="H89" s="5">
+      <c r="K89" s="5">
         <v>727677.0</v>
       </c>
-      <c r="J89" s="5">
+      <c r="M89" s="5">
         <v>164.0</v>
       </c>
-      <c r="K89" s="5">
+      <c r="N89" s="5">
         <v>533877.0</v>
       </c>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
     </row>
     <row r="90">
       <c r="A90" s="5">
@@ -9908,22 +10613,29 @@
         <v>500.0</v>
       </c>
       <c r="E90" s="5">
+        <v>588570.0</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H90" s="5">
         <v>729493.0</v>
       </c>
-      <c r="G90" s="5">
+      <c r="J90" s="5">
         <v>190.0</v>
       </c>
-      <c r="H90" s="5">
+      <c r="K90" s="5">
         <v>447629.0</v>
       </c>
-      <c r="J90" s="5">
+      <c r="M90" s="5">
         <v>174.0</v>
       </c>
-      <c r="K90" s="5">
+      <c r="N90" s="5">
         <v>566491.0</v>
       </c>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
     </row>
     <row r="91">
       <c r="A91" s="5">
@@ -9936,22 +10648,29 @@
         <v>500.0</v>
       </c>
       <c r="E91" s="5">
+        <v>605509.0</v>
+      </c>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H91" s="5">
         <v>731341.0</v>
       </c>
-      <c r="G91" s="5">
+      <c r="J91" s="5">
         <v>179.0</v>
       </c>
-      <c r="H91" s="5">
+      <c r="K91" s="5">
         <v>421101.0</v>
       </c>
-      <c r="J91" s="5">
+      <c r="M91" s="5">
         <v>204.0</v>
       </c>
-      <c r="K91" s="5">
+      <c r="N91" s="5">
         <v>664630.0</v>
       </c>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
     </row>
     <row r="92">
       <c r="A92" s="5">
@@ -9964,22 +10683,29 @@
         <v>500.0</v>
       </c>
       <c r="E92" s="5">
+        <v>624406.0</v>
+      </c>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H92" s="5">
         <v>760034.0</v>
       </c>
-      <c r="G92" s="5">
+      <c r="J92" s="5">
         <v>288.0</v>
       </c>
-      <c r="H92" s="5">
+      <c r="K92" s="5">
         <v>678551.0</v>
       </c>
-      <c r="J92" s="5">
+      <c r="M92" s="5">
         <v>225.0</v>
       </c>
-      <c r="K92" s="5">
+      <c r="N92" s="5">
         <v>733918.0</v>
       </c>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
     </row>
     <row r="93">
       <c r="A93" s="5">
@@ -9992,22 +10718,29 @@
         <v>500.0</v>
       </c>
       <c r="E93" s="5">
+        <v>626409.0</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H93" s="5">
         <v>783518.0</v>
       </c>
-      <c r="G93" s="5">
+      <c r="J93" s="5">
         <v>4.0</v>
       </c>
-      <c r="H93" s="5">
+      <c r="K93" s="5">
         <v>9169.0</v>
       </c>
-      <c r="J93" s="5">
+      <c r="M93" s="5">
         <v>274.0</v>
       </c>
-      <c r="K93" s="5">
+      <c r="N93" s="5">
         <v>894920.0</v>
       </c>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
     </row>
     <row r="94">
       <c r="A94" s="5">
@@ -10020,22 +10753,29 @@
         <v>500.0</v>
       </c>
       <c r="E94" s="5">
+        <v>627796.0</v>
+      </c>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H94" s="5">
         <v>784956.0</v>
       </c>
-      <c r="G94" s="5">
+      <c r="J94" s="5">
         <v>4.0</v>
       </c>
-      <c r="H94" s="5">
+      <c r="K94" s="5">
         <v>9189.0</v>
       </c>
-      <c r="J94" s="5">
+      <c r="M94" s="5">
         <v>277.0</v>
       </c>
-      <c r="K94" s="5">
+      <c r="N94" s="5">
         <v>908849.0</v>
       </c>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
     </row>
     <row r="95">
       <c r="A95" s="5">
@@ -10048,22 +10788,29 @@
         <v>500.0</v>
       </c>
       <c r="E95" s="5">
+        <v>629333.0</v>
+      </c>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H95" s="5">
         <v>786297.0</v>
       </c>
-      <c r="G95" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H95" s="5">
+      <c r="J95" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K95" s="5">
         <v>1266189.0</v>
       </c>
-      <c r="J95" s="5">
+      <c r="M95" s="5">
         <v>259.0</v>
       </c>
-      <c r="K95" s="5">
+      <c r="N95" s="5">
         <v>849095.0</v>
       </c>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
     </row>
     <row r="96">
       <c r="A96" s="5">
@@ -10076,22 +10823,29 @@
         <v>500.0</v>
       </c>
       <c r="E96" s="5">
+        <v>631063.0</v>
+      </c>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H96" s="5">
         <v>787569.0</v>
       </c>
-      <c r="G96" s="5">
+      <c r="J96" s="5">
         <v>4.0</v>
       </c>
-      <c r="H96" s="5">
+      <c r="K96" s="5">
         <v>9210.0</v>
       </c>
-      <c r="J96" s="5">
+      <c r="M96" s="5">
         <v>304.0</v>
       </c>
-      <c r="K96" s="5">
+      <c r="N96" s="5">
         <v>989992.0</v>
       </c>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
     </row>
     <row r="97">
       <c r="A97" s="5">
@@ -10104,22 +10858,29 @@
         <v>500.0</v>
       </c>
       <c r="E97" s="5">
+        <v>631100.0</v>
+      </c>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H97" s="5">
         <v>788822.0</v>
       </c>
-      <c r="G97" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H97" s="5">
+      <c r="J97" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K97" s="5">
         <v>1195832.0</v>
       </c>
-      <c r="J97" s="5">
+      <c r="M97" s="5">
         <v>352.0</v>
       </c>
-      <c r="K97" s="5">
+      <c r="N97" s="5">
         <v>1145887.0</v>
       </c>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
     </row>
     <row r="98">
       <c r="A98" s="5">
@@ -10132,22 +10893,29 @@
         <v>500.0</v>
       </c>
       <c r="E98" s="5">
+        <v>631089.0</v>
+      </c>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H98" s="5">
         <v>789993.0</v>
       </c>
-      <c r="G98" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H98" s="5">
+      <c r="J98" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K98" s="5">
         <v>1196033.0</v>
       </c>
-      <c r="J98" s="5">
+      <c r="M98" s="5">
         <v>390.0</v>
       </c>
-      <c r="K98" s="5">
+      <c r="N98" s="5">
         <v>1268955.0</v>
       </c>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
     </row>
     <row r="99">
       <c r="A99" s="5">
@@ -10160,22 +10928,29 @@
         <v>500.0</v>
       </c>
       <c r="E99" s="5">
+        <v>631026.0</v>
+      </c>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H99" s="5">
         <v>789951.0</v>
       </c>
-      <c r="G99" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H99" s="5">
+      <c r="J99" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K99" s="5">
         <v>1188532.0</v>
       </c>
-      <c r="J99" s="5">
+      <c r="M99" s="5">
         <v>428.0</v>
       </c>
-      <c r="K99" s="5">
+      <c r="N99" s="5">
         <v>1391320.0</v>
       </c>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
     </row>
     <row r="100">
       <c r="A100" s="5">
@@ -10188,22 +10963,29 @@
         <v>500.0</v>
       </c>
       <c r="E100" s="5">
+        <v>631071.0</v>
+      </c>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H100" s="5">
         <v>792792.0</v>
       </c>
-      <c r="G100" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H100" s="5">
+      <c r="J100" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K100" s="5">
         <v>1193279.0</v>
       </c>
-      <c r="J100" s="5">
+      <c r="M100" s="5">
         <v>461.0</v>
       </c>
-      <c r="K100" s="5">
+      <c r="N100" s="5">
         <v>1499634.0</v>
       </c>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
     </row>
     <row r="101">
       <c r="A101" s="5">
@@ -10216,22 +10998,29 @@
         <v>500.0</v>
       </c>
       <c r="E101" s="5">
+        <v>631059.0</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H101" s="5">
         <v>792796.0</v>
       </c>
-      <c r="G101" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H101" s="5">
+      <c r="J101" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K101" s="5">
         <v>1192611.0</v>
       </c>
-      <c r="J101" s="5">
+      <c r="M101" s="5">
         <v>487.0</v>
       </c>
-      <c r="K101" s="5">
+      <c r="N101" s="5">
         <v>1582588.0</v>
       </c>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
     </row>
     <row r="102">
       <c r="A102" s="5">
@@ -10244,22 +11033,29 @@
         <v>500.0</v>
       </c>
       <c r="E102" s="5">
+        <v>631060.0</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H102" s="5">
         <v>792749.0</v>
       </c>
-      <c r="G102" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H102" s="5">
+      <c r="J102" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K102" s="5">
         <v>1191002.0</v>
       </c>
-      <c r="J102" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K102" s="5">
+      <c r="M102" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N102" s="5">
         <v>1632091.0</v>
       </c>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
     </row>
     <row r="103">
       <c r="A103" s="5">
@@ -10272,22 +11068,29 @@
         <v>500.0</v>
       </c>
       <c r="E103" s="5">
+        <v>631010.0</v>
+      </c>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H103" s="5">
         <v>792686.0</v>
       </c>
-      <c r="G103" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H103" s="5">
+      <c r="J103" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K103" s="5">
         <v>1188017.0</v>
       </c>
-      <c r="J103" s="5">
+      <c r="M103" s="5">
         <v>178.0</v>
       </c>
-      <c r="K103" s="5">
+      <c r="N103" s="5">
         <v>579686.0</v>
       </c>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
     </row>
     <row r="104">
       <c r="A104" s="5">
@@ -10300,22 +11103,29 @@
         <v>500.0</v>
       </c>
       <c r="E104" s="5">
+        <v>630947.0</v>
+      </c>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H104" s="5">
         <v>792515.0</v>
       </c>
-      <c r="G104" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H104" s="5">
+      <c r="J104" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K104" s="5">
         <v>1185498.0</v>
       </c>
-      <c r="J104" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K104" s="5">
+      <c r="M104" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N104" s="5">
         <v>1629960.0</v>
       </c>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
     </row>
     <row r="105">
       <c r="A105" s="5">
@@ -10328,22 +11138,29 @@
         <v>500.0</v>
       </c>
       <c r="E105" s="5">
+        <v>630962.0</v>
+      </c>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H105" s="5">
         <v>747640.0</v>
       </c>
-      <c r="G105" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H105" s="5">
+      <c r="J105" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K105" s="5">
         <v>1182021.0</v>
       </c>
-      <c r="J105" s="5">
+      <c r="M105" s="5">
         <v>169.0</v>
       </c>
-      <c r="K105" s="5">
+      <c r="N105" s="5">
         <v>546850.0</v>
       </c>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
     </row>
     <row r="106">
       <c r="A106" s="5">
@@ -10356,22 +11173,29 @@
         <v>500.0</v>
       </c>
       <c r="E106" s="5">
+        <v>630774.0</v>
+      </c>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H106" s="5">
         <v>746825.0</v>
       </c>
-      <c r="G106" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H106" s="5">
+      <c r="J106" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K106" s="5">
         <v>1178771.0</v>
       </c>
-      <c r="J106" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K106" s="5">
+      <c r="M106" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N106" s="5">
         <v>1617491.0</v>
       </c>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
     </row>
     <row r="107">
       <c r="A107" s="5">
@@ -10384,22 +11208,29 @@
         <v>500.0</v>
       </c>
       <c r="E107" s="5">
+        <v>630652.0</v>
+      </c>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H107" s="5">
         <v>741369.0</v>
       </c>
-      <c r="G107" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H107" s="5">
+      <c r="J107" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K107" s="5">
         <v>1176679.0</v>
       </c>
-      <c r="J107" s="5">
+      <c r="M107" s="5">
         <v>267.0</v>
       </c>
-      <c r="K107" s="5">
+      <c r="N107" s="5">
         <v>862242.0</v>
       </c>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
     </row>
     <row r="108">
       <c r="A108" s="5">
@@ -10412,22 +11243,29 @@
         <v>500.0</v>
       </c>
       <c r="E108" s="5">
+        <v>630539.0</v>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H108" s="5">
         <v>741273.0</v>
       </c>
-      <c r="G108" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H108" s="5">
+      <c r="J108" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K108" s="5">
         <v>1176539.0</v>
       </c>
-      <c r="J108" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K108" s="5">
+      <c r="M108" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N108" s="5">
         <v>1614128.0</v>
       </c>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
     </row>
     <row r="109">
       <c r="A109" s="5">
@@ -10440,22 +11278,29 @@
         <v>500.0</v>
       </c>
       <c r="E109" s="5">
+        <v>594866.0</v>
+      </c>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H109" s="5">
         <v>743511.0</v>
       </c>
-      <c r="G109" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H109" s="5">
+      <c r="J109" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K109" s="5">
         <v>1175566.0</v>
       </c>
-      <c r="J109" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K109" s="5">
+      <c r="M109" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N109" s="5">
         <v>1614215.0</v>
       </c>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
     </row>
     <row r="110">
       <c r="A110" s="5">
@@ -10468,22 +11313,29 @@
         <v>500.0</v>
       </c>
       <c r="E110" s="5">
+        <v>590419.0</v>
+      </c>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H110" s="5">
         <v>743156.0</v>
       </c>
-      <c r="G110" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H110" s="5">
+      <c r="J110" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K110" s="5">
         <v>1175188.0</v>
       </c>
-      <c r="J110" s="5">
+      <c r="M110" s="5">
         <v>311.0</v>
       </c>
-      <c r="K110" s="5">
+      <c r="N110" s="5">
         <v>1003416.0</v>
       </c>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
     </row>
     <row r="111">
       <c r="A111" s="5">
@@ -10496,22 +11348,29 @@
         <v>500.0</v>
       </c>
       <c r="E111" s="5">
+        <v>590061.0</v>
+      </c>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H111" s="5">
         <v>742703.0</v>
       </c>
-      <c r="G111" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H111" s="5">
+      <c r="J111" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K111" s="5">
         <v>1175167.0</v>
       </c>
-      <c r="J111" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K111" s="5">
+      <c r="M111" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N111" s="5">
         <v>1615199.0</v>
       </c>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
     </row>
     <row r="112">
       <c r="A112" s="5">
@@ -10524,22 +11383,29 @@
         <v>500.0</v>
       </c>
       <c r="E112" s="5">
+        <v>591906.0</v>
+      </c>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H112" s="5">
         <v>740362.0</v>
       </c>
-      <c r="G112" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H112" s="5">
+      <c r="J112" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K112" s="5">
         <v>1175923.0</v>
       </c>
-      <c r="J112" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K112" s="5">
+      <c r="M112" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N112" s="5">
         <v>1614861.0</v>
       </c>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
     </row>
     <row r="113">
       <c r="A113" s="5">
@@ -10552,22 +11418,29 @@
         <v>500.0</v>
       </c>
       <c r="E113" s="5">
+        <v>592331.0</v>
+      </c>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H113" s="5">
         <v>736592.0</v>
       </c>
-      <c r="G113" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H113" s="5">
+      <c r="J113" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K113" s="5">
         <v>1175491.0</v>
       </c>
-      <c r="J113" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K113" s="5">
+      <c r="M113" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N113" s="5">
         <v>1613933.0</v>
       </c>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
     </row>
     <row r="114">
       <c r="A114" s="5">
@@ -10580,22 +11453,29 @@
         <v>500.0</v>
       </c>
       <c r="E114" s="5">
+        <v>592672.0</v>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H114" s="5">
         <v>735222.0</v>
       </c>
-      <c r="G114" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H114" s="5">
+      <c r="J114" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K114" s="5">
         <v>1174342.0</v>
       </c>
-      <c r="J114" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K114" s="5">
+      <c r="M114" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N114" s="5">
         <v>1615668.0</v>
       </c>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
     </row>
     <row r="115">
       <c r="A115" s="5">
@@ -10608,22 +11488,29 @@
         <v>500.0</v>
       </c>
       <c r="E115" s="5">
+        <v>594229.0</v>
+      </c>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H115" s="5">
         <v>732985.0</v>
       </c>
-      <c r="G115" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H115" s="5">
+      <c r="J115" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K115" s="5">
         <v>1175621.0</v>
       </c>
-      <c r="J115" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K115" s="5">
+      <c r="M115" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N115" s="5">
         <v>1614677.0</v>
       </c>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
     </row>
     <row r="116">
       <c r="A116" s="5">
@@ -10636,22 +11523,29 @@
         <v>500.0</v>
       </c>
       <c r="E116" s="5">
+        <v>594469.0</v>
+      </c>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H116" s="5">
         <v>731428.0</v>
       </c>
-      <c r="G116" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H116" s="5">
+      <c r="J116" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K116" s="5">
         <v>1169661.0</v>
       </c>
-      <c r="J116" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K116" s="5">
+      <c r="M116" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N116" s="5">
         <v>1613078.0</v>
       </c>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
     </row>
     <row r="117">
       <c r="A117" s="5">
@@ -10664,22 +11558,29 @@
         <v>500.0</v>
       </c>
       <c r="E117" s="5">
+        <v>594782.0</v>
+      </c>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H117" s="5">
         <v>729780.0</v>
       </c>
-      <c r="G117" s="5">
+      <c r="J117" s="5">
         <v>433.0</v>
       </c>
-      <c r="H117" s="5">
+      <c r="K117" s="5">
         <v>1009313.0</v>
       </c>
-      <c r="J117" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K117" s="5">
+      <c r="M117" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N117" s="5">
         <v>1613681.0</v>
       </c>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
     </row>
     <row r="118">
       <c r="A118" s="5">
@@ -10692,22 +11593,29 @@
         <v>500.0</v>
       </c>
       <c r="E118" s="5">
+        <v>593863.0</v>
+      </c>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H118" s="5">
         <v>728781.0</v>
       </c>
-      <c r="G118" s="5">
+      <c r="J118" s="5">
         <v>30.0</v>
       </c>
-      <c r="H118" s="5">
+      <c r="K118" s="5">
         <v>69928.0</v>
       </c>
-      <c r="J118" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K118" s="5">
+      <c r="M118" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N118" s="5">
         <v>1614761.0</v>
       </c>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
     </row>
     <row r="119">
       <c r="A119" s="5">
@@ -10720,22 +11628,29 @@
         <v>500.0</v>
       </c>
       <c r="E119" s="5">
+        <v>590553.0</v>
+      </c>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H119" s="5">
         <v>727710.0</v>
       </c>
-      <c r="G119" s="5">
+      <c r="J119" s="5">
         <v>30.0</v>
       </c>
-      <c r="H119" s="5">
+      <c r="K119" s="5">
         <v>69980.0</v>
       </c>
-      <c r="J119" s="5">
+      <c r="M119" s="5">
         <v>164.0</v>
       </c>
-      <c r="K119" s="5">
+      <c r="N119" s="5">
         <v>528819.0</v>
       </c>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
     </row>
     <row r="120">
       <c r="A120" s="5">
@@ -10748,22 +11663,29 @@
         <v>500.0</v>
       </c>
       <c r="E120" s="5">
+        <v>587407.0</v>
+      </c>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H120" s="5">
         <v>722658.0</v>
       </c>
-      <c r="G120" s="5">
+      <c r="J120" s="5">
         <v>24.0</v>
       </c>
-      <c r="H120" s="5">
+      <c r="K120" s="5">
         <v>55978.0</v>
       </c>
-      <c r="J120" s="5">
+      <c r="M120" s="5">
         <v>5.0</v>
       </c>
-      <c r="K120" s="5">
+      <c r="N120" s="5">
         <v>14797.0</v>
       </c>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
     </row>
     <row r="121">
       <c r="A121" s="5">
@@ -10773,25 +11695,32 @@
         <v>9341.0</v>
       </c>
       <c r="D121" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E121" s="5">
+        <v>584275.0</v>
+      </c>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5">
         <v>56.0</v>
       </c>
-      <c r="E121" s="5">
+      <c r="H121" s="5">
         <v>80293.0</v>
       </c>
-      <c r="G121" s="5">
+      <c r="J121" s="5">
         <v>17.0</v>
       </c>
-      <c r="H121" s="5">
+      <c r="K121" s="5">
         <v>39545.0</v>
       </c>
-      <c r="J121" s="5">
+      <c r="M121" s="5">
         <v>75.0</v>
       </c>
-      <c r="K121" s="5">
+      <c r="N121" s="5">
         <v>242194.0</v>
       </c>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
     </row>
     <row r="122">
       <c r="A122" s="5">
@@ -10801,25 +11730,32 @@
         <v>9340.0</v>
       </c>
       <c r="D122" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E122" s="5">
+        <v>581552.0</v>
+      </c>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5">
         <v>5.0</v>
       </c>
-      <c r="E122" s="5">
+      <c r="H122" s="5">
         <v>6086.0</v>
       </c>
-      <c r="G122" s="5">
+      <c r="J122" s="5">
         <v>11.0</v>
       </c>
-      <c r="H122" s="5">
+      <c r="K122" s="5">
         <v>25542.0</v>
       </c>
-      <c r="J122" s="5">
+      <c r="M122" s="5">
         <v>45.0</v>
       </c>
-      <c r="K122" s="5">
+      <c r="N122" s="5">
         <v>144319.0</v>
       </c>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
     </row>
     <row r="123">
       <c r="A123" s="5">
@@ -10829,25 +11765,32 @@
         <v>9341.0</v>
       </c>
       <c r="D123" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E123" s="5">
+        <v>579779.0</v>
+      </c>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5">
         <v>5.0</v>
       </c>
-      <c r="E123" s="5">
+      <c r="H123" s="5">
         <v>6086.0</v>
       </c>
-      <c r="G123" s="5">
+      <c r="J123" s="5">
         <v>7.0</v>
       </c>
-      <c r="H123" s="5">
+      <c r="K123" s="5">
         <v>16219.0</v>
       </c>
-      <c r="J123" s="5">
+      <c r="M123" s="5">
         <v>43.0</v>
       </c>
-      <c r="K123" s="5">
+      <c r="N123" s="5">
         <v>138966.0</v>
       </c>
-      <c r="M123" s="5"/>
-      <c r="N123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
     </row>
     <row r="124">
       <c r="A124" s="5">
@@ -10857,25 +11800,32 @@
         <v>9342.0</v>
       </c>
       <c r="D124" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E124" s="5">
+        <v>576964.0</v>
+      </c>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5">
         <v>53.0</v>
       </c>
-      <c r="E124" s="5">
+      <c r="H124" s="5">
         <v>76763.0</v>
       </c>
-      <c r="G124" s="5">
+      <c r="J124" s="5">
         <v>8.0</v>
       </c>
-      <c r="H124" s="5">
+      <c r="K124" s="5">
         <v>18508.0</v>
       </c>
-      <c r="J124" s="5">
+      <c r="M124" s="5">
         <v>45.0</v>
       </c>
-      <c r="K124" s="5">
+      <c r="N124" s="5">
         <v>145722.0</v>
       </c>
-      <c r="M124" s="5"/>
-      <c r="N124" s="5"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
     </row>
     <row r="125">
       <c r="A125" s="5">
@@ -10885,25 +11835,32 @@
         <v>9344.0</v>
       </c>
       <c r="D125" s="5">
+        <v>26.0</v>
+      </c>
+      <c r="E125" s="5">
+        <v>29668.0</v>
+      </c>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5">
         <v>62.0</v>
       </c>
-      <c r="E125" s="5">
+      <c r="H125" s="5">
         <v>89622.0</v>
       </c>
-      <c r="G125" s="5">
+      <c r="J125" s="5">
         <v>71.0</v>
       </c>
-      <c r="H125" s="5">
+      <c r="K125" s="5">
         <v>166354.0</v>
       </c>
-      <c r="J125" s="5">
+      <c r="M125" s="5">
         <v>47.0</v>
       </c>
-      <c r="K125" s="5">
+      <c r="N125" s="5">
         <v>151714.0</v>
       </c>
-      <c r="M125" s="5"/>
-      <c r="N125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
     </row>
     <row r="126">
       <c r="A126" s="5">
@@ -10913,25 +11870,32 @@
         <v>9346.0</v>
       </c>
       <c r="D126" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E126" s="5">
+        <v>5614.0</v>
+      </c>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5">
         <v>64.0</v>
       </c>
-      <c r="E126" s="5">
+      <c r="H126" s="5">
         <v>92492.0</v>
       </c>
-      <c r="G126" s="5">
+      <c r="J126" s="5">
         <v>89.0</v>
       </c>
-      <c r="H126" s="5">
+      <c r="K126" s="5">
         <v>208804.0</v>
       </c>
-      <c r="J126" s="5">
+      <c r="M126" s="5">
         <v>47.0</v>
       </c>
-      <c r="K126" s="5">
+      <c r="N126" s="5">
         <v>151827.0</v>
       </c>
-      <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
     </row>
     <row r="127">
       <c r="A127" s="5">
@@ -10941,25 +11905,32 @@
         <v>9345.0</v>
       </c>
       <c r="D127" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E127" s="5">
+        <v>4834.0</v>
+      </c>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5">
         <v>54.0</v>
       </c>
-      <c r="E127" s="5">
+      <c r="H127" s="5">
         <v>78055.0</v>
       </c>
-      <c r="G127" s="5">
+      <c r="J127" s="5">
         <v>99.0</v>
       </c>
-      <c r="H127" s="5">
+      <c r="K127" s="5">
         <v>232366.0</v>
       </c>
-      <c r="J127" s="5">
+      <c r="M127" s="5">
         <v>56.0</v>
       </c>
-      <c r="K127" s="5">
+      <c r="N127" s="5">
         <v>180893.0</v>
       </c>
-      <c r="M127" s="5"/>
-      <c r="N127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
     </row>
     <row r="128">
       <c r="A128" s="5">
@@ -10969,25 +11940,32 @@
         <v>9345.0</v>
       </c>
       <c r="D128" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E128" s="5">
+        <v>4850.0</v>
+      </c>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5">
         <v>43.0</v>
       </c>
-      <c r="E128" s="5">
+      <c r="H128" s="5">
         <v>62148.0</v>
       </c>
-      <c r="G128" s="5">
+      <c r="J128" s="5">
         <v>94.0</v>
       </c>
-      <c r="H128" s="5">
+      <c r="K128" s="5">
         <v>220837.0</v>
       </c>
-      <c r="J128" s="5">
+      <c r="M128" s="5">
         <v>55.0</v>
       </c>
-      <c r="K128" s="5">
+      <c r="N128" s="5">
         <v>177738.0</v>
       </c>
-      <c r="M128" s="5"/>
-      <c r="N128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
     </row>
     <row r="129">
       <c r="A129" s="5">
@@ -10997,25 +11975,32 @@
         <v>9346.0</v>
       </c>
       <c r="D129" s="5">
+        <v>62.0</v>
+      </c>
+      <c r="E129" s="5">
+        <v>71526.0</v>
+      </c>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5">
         <v>36.0</v>
       </c>
-      <c r="E129" s="5">
+      <c r="H129" s="5">
         <v>52083.0</v>
       </c>
-      <c r="G129" s="5">
+      <c r="J129" s="5">
         <v>25.0</v>
       </c>
-      <c r="H129" s="5">
+      <c r="K129" s="5">
         <v>58692.0</v>
       </c>
-      <c r="J129" s="5">
+      <c r="M129" s="5">
         <v>48.0</v>
       </c>
-      <c r="K129" s="5">
+      <c r="N129" s="5">
         <v>155142.0</v>
       </c>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5"/>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
     </row>
     <row r="130">
       <c r="A130" s="5">
@@ -11025,25 +12010,32 @@
         <v>9346.0</v>
       </c>
       <c r="D130" s="5">
+        <v>63.0</v>
+      </c>
+      <c r="E130" s="5">
+        <v>72684.0</v>
+      </c>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5">
         <v>25.0</v>
       </c>
-      <c r="E130" s="5">
+      <c r="H130" s="5">
         <v>36135.0</v>
       </c>
-      <c r="G130" s="5">
+      <c r="J130" s="5">
         <v>46.0</v>
       </c>
-      <c r="H130" s="5">
+      <c r="K130" s="5">
         <v>108153.0</v>
       </c>
-      <c r="J130" s="5">
+      <c r="M130" s="5">
         <v>39.0</v>
       </c>
-      <c r="K130" s="5">
+      <c r="N130" s="5">
         <v>126026.0</v>
       </c>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
+      <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
     </row>
     <row r="131">
       <c r="A131" s="5">
@@ -11053,25 +12045,32 @@
         <v>9347.0</v>
       </c>
       <c r="D131" s="5">
+        <v>55.0</v>
+      </c>
+      <c r="E131" s="5">
+        <v>63365.0</v>
+      </c>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5">
         <v>16.0</v>
       </c>
-      <c r="E131" s="5">
+      <c r="H131" s="5">
         <v>23048.0</v>
       </c>
-      <c r="G131" s="5">
+      <c r="J131" s="5">
         <v>57.0</v>
       </c>
-      <c r="H131" s="5">
+      <c r="K131" s="5">
         <v>133944.0</v>
       </c>
-      <c r="J131" s="5">
+      <c r="M131" s="5">
         <v>53.0</v>
       </c>
-      <c r="K131" s="5">
+      <c r="N131" s="5">
         <v>171286.0</v>
       </c>
-      <c r="M131" s="5"/>
-      <c r="N131" s="5"/>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
     </row>
     <row r="132">
       <c r="A132" s="5">
@@ -11081,25 +12080,32 @@
         <v>9346.0</v>
       </c>
       <c r="D132" s="5">
+        <v>46.0</v>
+      </c>
+      <c r="E132" s="5">
+        <v>53043.0</v>
+      </c>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5">
         <v>15.0</v>
       </c>
-      <c r="E132" s="5">
+      <c r="H132" s="5">
         <v>21630.0</v>
       </c>
-      <c r="G132" s="5">
+      <c r="J132" s="5">
         <v>49.0</v>
       </c>
-      <c r="H132" s="5">
+      <c r="K132" s="5">
         <v>115366.0</v>
       </c>
-      <c r="J132" s="5">
+      <c r="M132" s="5">
         <v>47.0</v>
       </c>
-      <c r="K132" s="5">
+      <c r="N132" s="5">
         <v>151933.0</v>
       </c>
-      <c r="M132" s="5"/>
-      <c r="N132" s="5"/>
+      <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
     </row>
     <row r="133">
       <c r="A133" s="5">
@@ -11109,25 +12115,32 @@
         <v>9345.0</v>
       </c>
       <c r="D133" s="5">
+        <v>39.0</v>
+      </c>
+      <c r="E133" s="5">
+        <v>45211.0</v>
+      </c>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5">
         <v>18.0</v>
       </c>
-      <c r="E133" s="5">
+      <c r="H133" s="5">
         <v>26057.0</v>
       </c>
-      <c r="G133" s="5">
+      <c r="J133" s="5">
         <v>64.0</v>
       </c>
-      <c r="H133" s="5">
+      <c r="K133" s="5">
         <v>150647.0</v>
       </c>
-      <c r="J133" s="5">
+      <c r="M133" s="5">
         <v>57.0</v>
       </c>
-      <c r="K133" s="5">
+      <c r="N133" s="5">
         <v>184769.0</v>
       </c>
-      <c r="M133" s="5"/>
-      <c r="N133" s="5"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
     </row>
     <row r="134">
       <c r="A134" s="5">
@@ -11137,25 +12150,32 @@
         <v>9347.0</v>
       </c>
       <c r="D134" s="5">
+        <v>28.0</v>
+      </c>
+      <c r="E134" s="5">
+        <v>32452.0</v>
+      </c>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5">
         <v>78.0</v>
       </c>
-      <c r="E134" s="5">
+      <c r="H134" s="5">
         <v>113828.0</v>
       </c>
-      <c r="G134" s="5">
+      <c r="J134" s="5">
         <v>77.0</v>
       </c>
-      <c r="H134" s="5">
+      <c r="K134" s="5">
         <v>181264.0</v>
       </c>
-      <c r="J134" s="5">
+      <c r="M134" s="5">
         <v>70.0</v>
       </c>
-      <c r="K134" s="5">
+      <c r="N134" s="5">
         <v>227370.0</v>
       </c>
-      <c r="M134" s="5"/>
-      <c r="N134" s="5"/>
+      <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
     </row>
     <row r="135">
       <c r="A135" s="5">
@@ -11165,25 +12185,32 @@
         <v>9346.0</v>
       </c>
       <c r="D135" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="E135" s="5">
+        <v>22006.0</v>
+      </c>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5">
         <v>77.0</v>
       </c>
-      <c r="E135" s="5">
+      <c r="H135" s="5">
         <v>112419.0</v>
       </c>
-      <c r="G135" s="5">
+      <c r="J135" s="5">
         <v>54.0</v>
       </c>
-      <c r="H135" s="5">
+      <c r="K135" s="5">
         <v>127294.0</v>
       </c>
-      <c r="J135" s="5">
+      <c r="M135" s="5">
         <v>32.0</v>
       </c>
-      <c r="K135" s="5">
+      <c r="N135" s="5">
         <v>103879.0</v>
       </c>
-      <c r="M135" s="5"/>
-      <c r="N135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
     </row>
     <row r="136">
       <c r="A136" s="5">
@@ -11193,25 +12220,32 @@
         <v>9344.0</v>
       </c>
       <c r="D136" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="E136" s="5">
+        <v>15055.0</v>
+      </c>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5">
         <v>69.0</v>
       </c>
-      <c r="E136" s="5">
+      <c r="H136" s="5">
         <v>101011.0</v>
       </c>
-      <c r="G136" s="5">
+      <c r="J136" s="5">
         <v>32.0</v>
       </c>
-      <c r="H136" s="5">
+      <c r="K136" s="5">
         <v>75276.0</v>
       </c>
-      <c r="J136" s="5">
+      <c r="M136" s="5">
         <v>26.0</v>
       </c>
-      <c r="K136" s="5">
+      <c r="N136" s="5">
         <v>84228.0</v>
       </c>
-      <c r="M136" s="5"/>
-      <c r="N136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
     </row>
     <row r="137">
       <c r="A137" s="5">
@@ -11221,25 +12255,32 @@
         <v>9344.0</v>
       </c>
       <c r="D137" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="E137" s="5">
+        <v>19746.0</v>
+      </c>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5">
         <v>61.0</v>
       </c>
-      <c r="E137" s="5">
+      <c r="H137" s="5">
         <v>89390.0</v>
       </c>
-      <c r="G137" s="5">
+      <c r="J137" s="5">
         <v>21.0</v>
       </c>
-      <c r="H137" s="5">
+      <c r="K137" s="5">
         <v>49360.0</v>
       </c>
-      <c r="J137" s="5">
+      <c r="M137" s="5">
         <v>25.0</v>
       </c>
-      <c r="K137" s="5">
+      <c r="N137" s="5">
         <v>80940.0</v>
       </c>
-      <c r="M137" s="5"/>
-      <c r="N137" s="5"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
     </row>
     <row r="138">
       <c r="A138" s="5">
@@ -11249,25 +12290,32 @@
         <v>9344.0</v>
       </c>
       <c r="D138" s="5">
+        <v>23.0</v>
+      </c>
+      <c r="E138" s="5">
+        <v>26872.0</v>
+      </c>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5">
         <v>55.0</v>
       </c>
-      <c r="E138" s="5">
+      <c r="H138" s="5">
         <v>80704.0</v>
-      </c>
-      <c r="G138" s="5">
-        <v>21.0</v>
-      </c>
-      <c r="H138" s="5">
-        <v>49166.0</v>
       </c>
       <c r="J138" s="5">
         <v>21.0</v>
       </c>
       <c r="K138" s="5">
+        <v>49166.0</v>
+      </c>
+      <c r="M138" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="N138" s="5">
         <v>67719.0</v>
       </c>
-      <c r="M138" s="5"/>
-      <c r="N138" s="5"/>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
     </row>
     <row r="139">
       <c r="A139" s="5">
@@ -11277,25 +12325,32 @@
         <v>9343.0</v>
       </c>
       <c r="D139" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="E139" s="5">
+        <v>40835.0</v>
+      </c>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5">
         <v>52.0</v>
       </c>
-      <c r="E139" s="5">
+      <c r="H139" s="5">
         <v>76366.0</v>
       </c>
-      <c r="G139" s="5">
+      <c r="J139" s="5">
         <v>20.0</v>
       </c>
-      <c r="H139" s="5">
+      <c r="K139" s="5">
         <v>46955.0</v>
       </c>
-      <c r="J139" s="5">
+      <c r="M139" s="5">
         <v>21.0</v>
       </c>
-      <c r="K139" s="5">
+      <c r="N139" s="5">
         <v>68112.0</v>
       </c>
-      <c r="M139" s="5"/>
-      <c r="N139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
     </row>
     <row r="140">
       <c r="A140" s="5">
@@ -11305,25 +12360,32 @@
         <v>9342.0</v>
       </c>
       <c r="D140" s="5">
+        <v>63.0</v>
+      </c>
+      <c r="E140" s="5">
+        <v>73481.0</v>
+      </c>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5">
         <v>51.0</v>
       </c>
-      <c r="E140" s="5">
+      <c r="H140" s="5">
         <v>74691.0</v>
       </c>
-      <c r="G140" s="5">
+      <c r="J140" s="5">
         <v>27.0</v>
       </c>
-      <c r="H140" s="5">
+      <c r="K140" s="5">
         <v>63203.0</v>
       </c>
-      <c r="J140" s="5">
+      <c r="M140" s="5">
         <v>26.0</v>
       </c>
-      <c r="K140" s="5">
+      <c r="N140" s="5">
         <v>83861.0</v>
       </c>
-      <c r="M140" s="5"/>
-      <c r="N140" s="5"/>
+      <c r="P140" s="5"/>
+      <c r="Q140" s="5"/>
     </row>
     <row r="141">
       <c r="A141" s="5">
@@ -11333,25 +12395,32 @@
         <v>9343.0</v>
       </c>
       <c r="D141" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="E141" s="5">
+        <v>52485.0</v>
+      </c>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5">
         <v>52.0</v>
       </c>
-      <c r="E141" s="5">
+      <c r="H141" s="5">
         <v>76097.0</v>
       </c>
-      <c r="G141" s="5">
+      <c r="J141" s="5">
         <v>39.0</v>
       </c>
-      <c r="H141" s="5">
+      <c r="K141" s="5">
         <v>91320.0</v>
       </c>
-      <c r="J141" s="5">
+      <c r="M141" s="5">
         <v>37.0</v>
       </c>
-      <c r="K141" s="5">
+      <c r="N141" s="5">
         <v>119573.0</v>
       </c>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
     </row>
     <row r="142">
       <c r="A142" s="5">
@@ -11361,25 +12430,32 @@
         <v>9343.0</v>
       </c>
       <c r="D142" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="E142" s="5">
+        <v>52406.0</v>
+      </c>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5">
         <v>54.0</v>
       </c>
-      <c r="E142" s="5">
+      <c r="H142" s="5">
         <v>79048.0</v>
       </c>
-      <c r="G142" s="5">
+      <c r="J142" s="5">
         <v>23.0</v>
       </c>
-      <c r="H142" s="5">
+      <c r="K142" s="5">
         <v>53776.0</v>
       </c>
-      <c r="J142" s="5">
+      <c r="M142" s="5">
         <v>25.0</v>
       </c>
-      <c r="K142" s="5">
+      <c r="N142" s="5">
         <v>80671.0</v>
       </c>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
     </row>
     <row r="143">
       <c r="A143" s="5">
@@ -11389,25 +12465,32 @@
         <v>9345.0</v>
       </c>
       <c r="D143" s="5">
+        <v>46.0</v>
+      </c>
+      <c r="E143" s="5">
+        <v>53588.0</v>
+      </c>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5">
         <v>15.0</v>
       </c>
-      <c r="E143" s="5">
+      <c r="H143" s="5">
         <v>21414.0</v>
       </c>
-      <c r="G143" s="5">
+      <c r="J143" s="5">
         <v>12.0</v>
       </c>
-      <c r="H143" s="5">
+      <c r="K143" s="5">
         <v>27166.0</v>
       </c>
-      <c r="J143" s="5">
+      <c r="M143" s="5">
         <v>4.0</v>
       </c>
-      <c r="K143" s="5">
+      <c r="N143" s="5">
         <v>11202.0</v>
       </c>
-      <c r="M143" s="5"/>
-      <c r="N143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
     </row>
     <row r="144">
       <c r="A144" s="5">
@@ -11417,25 +12500,32 @@
         <v>9343.0</v>
       </c>
       <c r="D144" s="5">
+        <v>48.0</v>
+      </c>
+      <c r="E144" s="5">
+        <v>55917.0</v>
+      </c>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5">
         <v>4.0</v>
       </c>
-      <c r="E144" s="5">
+      <c r="H144" s="5">
         <v>5042.0</v>
       </c>
-      <c r="G144" s="5">
+      <c r="J144" s="5">
         <v>31.0</v>
       </c>
-      <c r="H144" s="5">
+      <c r="K144" s="5">
         <v>72546.0</v>
       </c>
-      <c r="J144" s="5">
+      <c r="M144" s="5">
         <v>33.0</v>
       </c>
-      <c r="K144" s="5">
+      <c r="N144" s="5">
         <v>106485.0</v>
       </c>
-      <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
     </row>
     <row r="145">
       <c r="A145" s="5">
@@ -11445,25 +12535,32 @@
         <v>9345.0</v>
       </c>
       <c r="D145" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="E145" s="5">
+        <v>58277.0</v>
+      </c>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5">
         <v>25.0</v>
       </c>
-      <c r="E145" s="5">
+      <c r="H145" s="5">
         <v>36371.0</v>
       </c>
-      <c r="G145" s="5">
+      <c r="J145" s="5">
         <v>37.0</v>
       </c>
-      <c r="H145" s="5">
+      <c r="K145" s="5">
         <v>86662.0</v>
       </c>
-      <c r="J145" s="5">
+      <c r="M145" s="5">
         <v>38.0</v>
       </c>
-      <c r="K145" s="5">
+      <c r="N145" s="5">
         <v>122704.0</v>
       </c>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
     </row>
     <row r="146">
       <c r="A146" s="5">
@@ -11473,25 +12570,32 @@
         <v>9345.0</v>
       </c>
       <c r="D146" s="5">
-        <v>34.0</v>
+        <v>53.0</v>
       </c>
       <c r="E146" s="5">
-        <v>49627.0</v>
-      </c>
+        <v>61793.0</v>
+      </c>
+      <c r="F146" s="5"/>
       <c r="G146" s="5">
         <v>34.0</v>
       </c>
       <c r="H146" s="5">
+        <v>49627.0</v>
+      </c>
+      <c r="J146" s="5">
+        <v>34.0</v>
+      </c>
+      <c r="K146" s="5">
         <v>79707.0</v>
       </c>
-      <c r="J146" s="5">
+      <c r="M146" s="5">
         <v>41.0</v>
       </c>
-      <c r="K146" s="5">
+      <c r="N146" s="5">
         <v>132545.0</v>
       </c>
-      <c r="M146" s="5"/>
-      <c r="N146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
     </row>
     <row r="147">
       <c r="A147" s="5">
@@ -11501,25 +12605,32 @@
         <v>9344.0</v>
       </c>
       <c r="D147" s="5">
+        <v>38.0</v>
+      </c>
+      <c r="E147" s="5">
+        <v>43918.0</v>
+      </c>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5">
         <v>44.0</v>
       </c>
-      <c r="E147" s="5">
+      <c r="H147" s="5">
         <v>64217.0</v>
       </c>
-      <c r="G147" s="5">
+      <c r="J147" s="5">
         <v>20.0</v>
       </c>
-      <c r="H147" s="5">
+      <c r="K147" s="5">
         <v>46677.0</v>
       </c>
-      <c r="J147" s="5">
+      <c r="M147" s="5">
         <v>24.0</v>
       </c>
-      <c r="K147" s="5">
+      <c r="N147" s="5">
         <v>77398.0</v>
       </c>
-      <c r="M147" s="5"/>
-      <c r="N147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
     </row>
     <row r="148">
       <c r="A148" s="5">
@@ -11529,25 +12640,32 @@
         <v>9344.0</v>
       </c>
       <c r="D148" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E148" s="5">
+        <v>9172.0</v>
+      </c>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5">
         <v>21.0</v>
       </c>
-      <c r="E148" s="5">
+      <c r="H148" s="5">
         <v>30643.0</v>
       </c>
-      <c r="G148" s="5">
+      <c r="J148" s="5">
         <v>33.0</v>
       </c>
-      <c r="H148" s="5">
+      <c r="K148" s="5">
         <v>77337.0</v>
       </c>
-      <c r="J148" s="5">
+      <c r="M148" s="5">
         <v>108.0</v>
       </c>
-      <c r="K148" s="5">
+      <c r="N148" s="5">
         <v>351536.0</v>
       </c>
-      <c r="M148" s="5"/>
-      <c r="N148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
     </row>
     <row r="149">
       <c r="A149" s="5">
@@ -11557,25 +12675,32 @@
         <v>9345.0</v>
       </c>
       <c r="D149" s="5">
+        <v>41.0</v>
+      </c>
+      <c r="E149" s="5">
+        <v>47561.0</v>
+      </c>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5">
         <v>46.0</v>
       </c>
-      <c r="E149" s="5">
+      <c r="H149" s="5">
         <v>67018.0</v>
       </c>
-      <c r="G149" s="5">
+      <c r="J149" s="5">
         <v>48.0</v>
       </c>
-      <c r="H149" s="5">
+      <c r="K149" s="5">
         <v>112697.0</v>
       </c>
-      <c r="J149" s="5">
+      <c r="M149" s="5">
         <v>98.0</v>
       </c>
-      <c r="K149" s="5">
+      <c r="N149" s="5">
         <v>318120.0</v>
       </c>
-      <c r="M149" s="5"/>
-      <c r="N149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
     </row>
     <row r="150">
       <c r="A150" s="5">
@@ -11585,25 +12710,32 @@
         <v>9346.0</v>
       </c>
       <c r="D150" s="5">
+        <v>42.0</v>
+      </c>
+      <c r="E150" s="5">
+        <v>48162.0</v>
+      </c>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5">
         <v>53.0</v>
       </c>
-      <c r="E150" s="5">
+      <c r="H150" s="5">
         <v>77325.0</v>
       </c>
-      <c r="G150" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H150" s="5">
+      <c r="J150" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K150" s="5">
         <v>1180802.0</v>
       </c>
-      <c r="J150" s="5">
+      <c r="M150" s="5">
         <v>94.0</v>
       </c>
-      <c r="K150" s="5">
+      <c r="N150" s="5">
         <v>304032.0</v>
       </c>
-      <c r="M150" s="5"/>
-      <c r="N150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
     </row>
     <row r="151">
       <c r="A151" s="5">
@@ -11616,22 +12748,29 @@
         <v>500.0</v>
       </c>
       <c r="E151" s="5">
+        <v>581078.0</v>
+      </c>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H151" s="5">
         <v>731418.0</v>
       </c>
-      <c r="G151" s="5">
+      <c r="J151" s="5">
         <v>328.0</v>
       </c>
-      <c r="H151" s="5">
+      <c r="K151" s="5">
         <v>771606.0</v>
       </c>
-      <c r="J151" s="5">
+      <c r="M151" s="5">
         <v>95.0</v>
       </c>
-      <c r="K151" s="5">
+      <c r="N151" s="5">
         <v>307532.0</v>
       </c>
-      <c r="M151" s="5"/>
-      <c r="N151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
     </row>
     <row r="152">
       <c r="A152" s="5">
@@ -11644,22 +12783,29 @@
         <v>500.0</v>
       </c>
       <c r="E152" s="5">
+        <v>581880.0</v>
+      </c>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H152" s="5">
         <v>729834.0</v>
       </c>
-      <c r="G152" s="5">
+      <c r="J152" s="5">
         <v>232.0</v>
       </c>
-      <c r="H152" s="5">
+      <c r="K152" s="5">
         <v>545550.0</v>
       </c>
-      <c r="J152" s="5">
+      <c r="M152" s="5">
         <v>145.0</v>
       </c>
-      <c r="K152" s="5">
+      <c r="N152" s="5">
         <v>471450.0</v>
       </c>
-      <c r="M152" s="5"/>
-      <c r="N152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
     </row>
     <row r="153">
       <c r="A153" s="5">
@@ -11672,22 +12818,29 @@
         <v>500.0</v>
       </c>
       <c r="E153" s="5">
+        <v>593319.0</v>
+      </c>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H153" s="5">
         <v>727967.0</v>
       </c>
-      <c r="G153" s="5">
+      <c r="J153" s="5">
         <v>249.0</v>
       </c>
-      <c r="H153" s="5">
+      <c r="K153" s="5">
         <v>585704.0</v>
       </c>
-      <c r="J153" s="5">
+      <c r="M153" s="5">
         <v>119.0</v>
       </c>
-      <c r="K153" s="5">
+      <c r="N153" s="5">
         <v>387209.0</v>
       </c>
-      <c r="M153" s="5"/>
-      <c r="N153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
     </row>
     <row r="154">
       <c r="A154" s="5">
@@ -11700,22 +12853,29 @@
         <v>500.0</v>
       </c>
       <c r="E154" s="5">
+        <v>618961.0</v>
+      </c>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H154" s="5">
         <v>757054.0</v>
       </c>
-      <c r="G154" s="5">
+      <c r="J154" s="5">
         <v>435.0</v>
       </c>
-      <c r="H154" s="5">
+      <c r="K154" s="5">
         <v>1023592.0</v>
       </c>
-      <c r="J154" s="5">
+      <c r="M154" s="5">
         <v>335.0</v>
       </c>
-      <c r="K154" s="5">
+      <c r="N154" s="5">
         <v>1091556.0</v>
       </c>
-      <c r="M154" s="5"/>
-      <c r="N154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
     </row>
     <row r="155">
       <c r="A155" s="5">
@@ -11728,22 +12888,29 @@
         <v>500.0</v>
       </c>
       <c r="E155" s="5">
+        <v>622244.0</v>
+      </c>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H155" s="5">
         <v>781098.0</v>
       </c>
-      <c r="G155" s="5">
+      <c r="J155" s="5">
         <v>6.0</v>
       </c>
-      <c r="H155" s="5">
+      <c r="K155" s="5">
         <v>12794.0</v>
       </c>
-      <c r="J155" s="5">
+      <c r="M155" s="5">
         <v>27.0</v>
       </c>
-      <c r="K155" s="5">
+      <c r="N155" s="5">
         <v>87916.0</v>
       </c>
-      <c r="M155" s="5"/>
-      <c r="N155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
     </row>
     <row r="156">
       <c r="A156" s="5">
@@ -11756,22 +12923,29 @@
         <v>500.0</v>
       </c>
       <c r="E156" s="5">
+        <v>623907.0</v>
+      </c>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H156" s="5">
         <v>782408.0</v>
       </c>
-      <c r="G156" s="5">
+      <c r="J156" s="5">
         <v>48.0</v>
       </c>
-      <c r="H156" s="5">
+      <c r="K156" s="5">
         <v>119504.0</v>
       </c>
-      <c r="J156" s="5">
+      <c r="M156" s="5">
         <v>475.0</v>
       </c>
-      <c r="K156" s="5">
+      <c r="N156" s="5">
         <v>1553440.0</v>
       </c>
-      <c r="M156" s="5"/>
-      <c r="N156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
     </row>
     <row r="157">
       <c r="A157" s="5">
@@ -11784,22 +12958,29 @@
         <v>500.0</v>
       </c>
       <c r="E157" s="5">
+        <v>625328.0</v>
+      </c>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H157" s="5">
         <v>783675.0</v>
       </c>
-      <c r="G157" s="5">
+      <c r="J157" s="5">
         <v>67.0</v>
       </c>
-      <c r="H157" s="5">
+      <c r="K157" s="5">
         <v>167514.0</v>
       </c>
-      <c r="J157" s="5">
+      <c r="M157" s="5">
         <v>301.0</v>
       </c>
-      <c r="K157" s="5">
+      <c r="N157" s="5">
         <v>982997.0</v>
       </c>
-      <c r="M157" s="5"/>
-      <c r="N157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
     </row>
     <row r="158">
       <c r="A158" s="5">
@@ -11812,22 +12993,29 @@
         <v>500.0</v>
       </c>
       <c r="E158" s="5">
+        <v>626882.0</v>
+      </c>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H158" s="5">
         <v>784993.0</v>
       </c>
-      <c r="G158" s="5">
+      <c r="J158" s="5">
         <v>4.0</v>
       </c>
-      <c r="H158" s="5">
+      <c r="K158" s="5">
         <v>9198.0</v>
       </c>
-      <c r="J158" s="5">
+      <c r="M158" s="5">
         <v>349.0</v>
       </c>
-      <c r="K158" s="5">
+      <c r="N158" s="5">
         <v>1139063.0</v>
       </c>
-      <c r="M158" s="5"/>
-      <c r="N158" s="5"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
     </row>
     <row r="159">
       <c r="A159" s="5">
@@ -11840,22 +13028,29 @@
         <v>500.0</v>
       </c>
       <c r="E159" s="5">
+        <v>628817.0</v>
+      </c>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H159" s="5">
         <v>786170.0</v>
       </c>
-      <c r="G159" s="5">
+      <c r="J159" s="5">
         <v>4.0</v>
       </c>
-      <c r="H159" s="5">
+      <c r="K159" s="5">
         <v>9210.0</v>
       </c>
-      <c r="J159" s="5">
+      <c r="M159" s="5">
         <v>405.0</v>
       </c>
-      <c r="K159" s="5">
+      <c r="N159" s="5">
         <v>1319550.0</v>
       </c>
-      <c r="M159" s="5"/>
-      <c r="N159" s="5"/>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="5"/>
     </row>
     <row r="160">
       <c r="A160" s="5">
@@ -11868,22 +13063,29 @@
         <v>500.0</v>
       </c>
       <c r="E160" s="5">
+        <v>628806.0</v>
+      </c>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H160" s="5">
         <v>787503.0</v>
       </c>
-      <c r="G160" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H160" s="5">
+      <c r="J160" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K160" s="5">
         <v>1191206.0</v>
       </c>
-      <c r="J160" s="5">
+      <c r="M160" s="5">
         <v>459.0</v>
       </c>
-      <c r="K160" s="5">
+      <c r="N160" s="5">
         <v>1492641.0</v>
       </c>
-      <c r="M160" s="5"/>
-      <c r="N160" s="5"/>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
     </row>
     <row r="161">
       <c r="A161" s="5">
@@ -11896,22 +13098,29 @@
         <v>500.0</v>
       </c>
       <c r="E161" s="5">
+        <v>628855.0</v>
+      </c>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H161" s="5">
         <v>788806.0</v>
       </c>
-      <c r="G161" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H161" s="5">
+      <c r="J161" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K161" s="5">
         <v>1187437.0</v>
       </c>
-      <c r="J161" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K161" s="5">
+      <c r="M161" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N161" s="5">
         <v>1627120.0</v>
       </c>
-      <c r="M161" s="5"/>
-      <c r="N161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
     </row>
     <row r="162">
       <c r="A162" s="5">
@@ -11924,22 +13133,29 @@
         <v>500.0</v>
       </c>
       <c r="E162" s="5">
+        <v>628884.0</v>
+      </c>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H162" s="5">
         <v>790146.0</v>
       </c>
-      <c r="G162" s="5">
+      <c r="J162" s="5">
         <v>261.0</v>
       </c>
-      <c r="H162" s="5">
+      <c r="K162" s="5">
         <v>621858.0</v>
       </c>
-      <c r="J162" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K162" s="5">
+      <c r="M162" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N162" s="5">
         <v>1626951.0</v>
       </c>
-      <c r="M162" s="5"/>
-      <c r="N162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
     </row>
     <row r="163">
       <c r="A163" s="5">
@@ -11952,22 +13168,29 @@
         <v>500.0</v>
       </c>
       <c r="E163" s="5">
+        <v>629009.0</v>
+      </c>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H163" s="5">
         <v>790258.0</v>
       </c>
-      <c r="G163" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H163" s="5">
+      <c r="J163" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K163" s="5">
         <v>1188278.0</v>
       </c>
-      <c r="J163" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K163" s="5">
+      <c r="M163" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N163" s="5">
         <v>1627555.0</v>
       </c>
-      <c r="M163" s="5"/>
-      <c r="N163" s="5"/>
+      <c r="P163" s="5"/>
+      <c r="Q163" s="5"/>
     </row>
     <row r="164">
       <c r="A164" s="5">
@@ -11980,22 +13203,29 @@
         <v>500.0</v>
       </c>
       <c r="E164" s="5">
+        <v>629050.0</v>
+      </c>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H164" s="5">
         <v>790207.0</v>
       </c>
-      <c r="G164" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H164" s="5">
+      <c r="J164" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K164" s="5">
         <v>1187404.0</v>
       </c>
-      <c r="J164" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K164" s="5">
+      <c r="M164" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N164" s="5">
         <v>1633151.0</v>
       </c>
-      <c r="M164" s="5"/>
-      <c r="N164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
     </row>
     <row r="165">
       <c r="A165" s="5">
@@ -12008,22 +13238,29 @@
         <v>500.0</v>
       </c>
       <c r="E165" s="5">
+        <v>629037.0</v>
+      </c>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H165" s="5">
         <v>790271.0</v>
       </c>
-      <c r="G165" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H165" s="5">
+      <c r="J165" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K165" s="5">
         <v>1187079.0</v>
       </c>
-      <c r="J165" s="5">
+      <c r="M165" s="5">
         <v>240.0</v>
       </c>
-      <c r="K165" s="5">
+      <c r="N165" s="5">
         <v>782323.0</v>
       </c>
-      <c r="M165" s="5"/>
-      <c r="N165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
     </row>
     <row r="166">
       <c r="A166" s="5">
@@ -12036,22 +13273,29 @@
         <v>500.0</v>
       </c>
       <c r="E166" s="5">
+        <v>629029.0</v>
+      </c>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H166" s="5">
         <v>790212.0</v>
       </c>
-      <c r="G166" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H166" s="5">
+      <c r="J166" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K166" s="5">
         <v>1184792.0</v>
       </c>
-      <c r="J166" s="5">
+      <c r="M166" s="5">
         <v>284.0</v>
       </c>
-      <c r="K166" s="5">
+      <c r="N166" s="5">
         <v>923689.0</v>
       </c>
-      <c r="M166" s="5"/>
-      <c r="N166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
     </row>
     <row r="167">
       <c r="A167" s="5">
@@ -12064,22 +13308,29 @@
         <v>500.0</v>
       </c>
       <c r="E167" s="5">
+        <v>629020.0</v>
+      </c>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H167" s="5">
         <v>745208.0</v>
       </c>
-      <c r="G167" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H167" s="5">
+      <c r="J167" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K167" s="5">
         <v>1181474.0</v>
       </c>
-      <c r="J167" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K167" s="5">
+      <c r="M167" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N167" s="5">
         <v>1627300.0</v>
       </c>
-      <c r="M167" s="5"/>
-      <c r="N167" s="5"/>
+      <c r="P167" s="5"/>
+      <c r="Q167" s="5"/>
     </row>
     <row r="168">
       <c r="A168" s="5">
@@ -12092,22 +13343,29 @@
         <v>500.0</v>
       </c>
       <c r="E168" s="5">
+        <v>629236.0</v>
+      </c>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H168" s="5">
         <v>744416.0</v>
       </c>
-      <c r="G168" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H168" s="5">
+      <c r="J168" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K168" s="5">
         <v>1178226.0</v>
       </c>
-      <c r="J168" s="5">
+      <c r="M168" s="5">
         <v>488.0</v>
       </c>
-      <c r="K168" s="5">
+      <c r="N168" s="5">
         <v>1583945.0</v>
       </c>
-      <c r="M168" s="5"/>
-      <c r="N168" s="5"/>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="5"/>
     </row>
     <row r="169">
       <c r="A169" s="5">
@@ -12120,22 +13378,29 @@
         <v>500.0</v>
       </c>
       <c r="E169" s="5">
+        <v>629192.0</v>
+      </c>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H169" s="5">
         <v>741776.0</v>
       </c>
-      <c r="G169" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H169" s="5">
+      <c r="J169" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K169" s="5">
         <v>1177828.0</v>
       </c>
-      <c r="J169" s="5">
+      <c r="M169" s="5">
         <v>338.0</v>
       </c>
-      <c r="K169" s="5">
+      <c r="N169" s="5">
         <v>1091803.0</v>
       </c>
-      <c r="M169" s="5"/>
-      <c r="N169" s="5"/>
+      <c r="P169" s="5"/>
+      <c r="Q169" s="5"/>
     </row>
     <row r="170">
       <c r="A170" s="5">
@@ -12148,22 +13413,29 @@
         <v>500.0</v>
       </c>
       <c r="E170" s="5">
+        <v>629170.0</v>
+      </c>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H170" s="5">
         <v>741950.0</v>
       </c>
-      <c r="G170" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H170" s="5">
+      <c r="J170" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K170" s="5">
         <v>1176463.0</v>
       </c>
-      <c r="J170" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K170" s="5">
+      <c r="M170" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N170" s="5">
         <v>1615705.0</v>
       </c>
-      <c r="M170" s="5"/>
-      <c r="N170" s="5"/>
+      <c r="P170" s="5"/>
+      <c r="Q170" s="5"/>
     </row>
     <row r="171">
       <c r="A171" s="5">
@@ -12176,22 +13448,29 @@
         <v>500.0</v>
       </c>
       <c r="E171" s="5">
+        <v>628772.0</v>
+      </c>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H171" s="5">
         <v>744211.0</v>
       </c>
-      <c r="G171" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H171" s="5">
+      <c r="J171" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K171" s="5">
         <v>1175890.0</v>
       </c>
-      <c r="J171" s="5">
+      <c r="M171" s="5">
         <v>235.0</v>
       </c>
-      <c r="K171" s="5">
+      <c r="N171" s="5">
         <v>759749.0</v>
       </c>
-      <c r="M171" s="5"/>
-      <c r="N171" s="5"/>
+      <c r="P171" s="5"/>
+      <c r="Q171" s="5"/>
     </row>
     <row r="172">
       <c r="A172" s="5">
@@ -12204,22 +13483,29 @@
         <v>500.0</v>
       </c>
       <c r="E172" s="5">
+        <v>592626.0</v>
+      </c>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H172" s="5">
         <v>743584.0</v>
       </c>
-      <c r="G172" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H172" s="5">
+      <c r="J172" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K172" s="5">
         <v>1177818.0</v>
       </c>
-      <c r="J172" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K172" s="5">
+      <c r="M172" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N172" s="5">
         <v>1619898.0</v>
       </c>
-      <c r="M172" s="5"/>
-      <c r="N172" s="5"/>
+      <c r="P172" s="5"/>
+      <c r="Q172" s="5"/>
     </row>
     <row r="173">
       <c r="A173" s="5">
@@ -12232,22 +13518,29 @@
         <v>500.0</v>
       </c>
       <c r="E173" s="5">
+        <v>590636.0</v>
+      </c>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H173" s="5">
         <v>743481.0</v>
       </c>
-      <c r="G173" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H173" s="5">
+      <c r="J173" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K173" s="5">
         <v>1177664.0</v>
       </c>
-      <c r="J173" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K173" s="5">
+      <c r="M173" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N173" s="5">
         <v>1619546.0</v>
       </c>
-      <c r="M173" s="5"/>
-      <c r="N173" s="5"/>
+      <c r="P173" s="5"/>
+      <c r="Q173" s="5"/>
     </row>
     <row r="174">
       <c r="A174" s="5">
@@ -12260,22 +13553,29 @@
         <v>500.0</v>
       </c>
       <c r="E174" s="5">
+        <v>592457.0</v>
+      </c>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H174" s="5">
         <v>740187.0</v>
       </c>
-      <c r="G174" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H174" s="5">
+      <c r="J174" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K174" s="5">
         <v>1177425.0</v>
       </c>
-      <c r="J174" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K174" s="5">
+      <c r="M174" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N174" s="5">
         <v>1618775.0</v>
       </c>
-      <c r="M174" s="5"/>
-      <c r="N174" s="5"/>
+      <c r="P174" s="5"/>
+      <c r="Q174" s="5"/>
     </row>
     <row r="175">
       <c r="A175" s="5">
@@ -12288,22 +13588,29 @@
         <v>500.0</v>
       </c>
       <c r="E175" s="5">
+        <v>592440.0</v>
+      </c>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H175" s="5">
         <v>737052.0</v>
       </c>
-      <c r="G175" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H175" s="5">
+      <c r="J175" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K175" s="5">
         <v>1182082.0</v>
       </c>
-      <c r="J175" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K175" s="5">
+      <c r="M175" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N175" s="5">
         <v>1617928.0</v>
       </c>
-      <c r="M175" s="5"/>
-      <c r="N175" s="5"/>
+      <c r="P175" s="5"/>
+      <c r="Q175" s="5"/>
     </row>
     <row r="176">
       <c r="A176" s="5">
@@ -12316,22 +13623,29 @@
         <v>500.0</v>
       </c>
       <c r="E176" s="5">
+        <v>593691.0</v>
+      </c>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H176" s="5">
         <v>737914.0</v>
       </c>
-      <c r="G176" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H176" s="5">
+      <c r="J176" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K176" s="5">
         <v>1181504.0</v>
       </c>
-      <c r="J176" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K176" s="5">
+      <c r="M176" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N176" s="5">
         <v>1616454.0</v>
       </c>
-      <c r="M176" s="5"/>
-      <c r="N176" s="5"/>
+      <c r="P176" s="5"/>
+      <c r="Q176" s="5"/>
     </row>
     <row r="177">
       <c r="A177" s="5">
@@ -12344,22 +13658,29 @@
         <v>500.0</v>
       </c>
       <c r="E177" s="5">
+        <v>594755.0</v>
+      </c>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H177" s="5">
         <v>735536.0</v>
       </c>
-      <c r="G177" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H177" s="5">
+      <c r="J177" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K177" s="5">
         <v>1183342.0</v>
       </c>
-      <c r="J177" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K177" s="5">
+      <c r="M177" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N177" s="5">
         <v>1622625.0</v>
       </c>
-      <c r="M177" s="5"/>
-      <c r="N177" s="5"/>
+      <c r="P177" s="5"/>
+      <c r="Q177" s="5"/>
     </row>
     <row r="178">
       <c r="A178" s="5">
@@ -12372,22 +13693,29 @@
         <v>500.0</v>
       </c>
       <c r="E178" s="5">
+        <v>597376.0</v>
+      </c>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H178" s="5">
         <v>734815.0</v>
       </c>
-      <c r="G178" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H178" s="5">
+      <c r="J178" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K178" s="5">
         <v>1180437.0</v>
       </c>
-      <c r="J178" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K178" s="5">
+      <c r="M178" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N178" s="5">
         <v>1621877.0</v>
       </c>
-      <c r="M178" s="5"/>
-      <c r="N178" s="5"/>
+      <c r="P178" s="5"/>
+      <c r="Q178" s="5"/>
     </row>
     <row r="179">
       <c r="A179" s="5">
@@ -12400,22 +13728,29 @@
         <v>500.0</v>
       </c>
       <c r="E179" s="5">
+        <v>597220.0</v>
+      </c>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H179" s="5">
         <v>733716.0</v>
       </c>
-      <c r="G179" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H179" s="5">
+      <c r="J179" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K179" s="5">
         <v>1173463.0</v>
       </c>
-      <c r="J179" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K179" s="5">
+      <c r="M179" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N179" s="5">
         <v>1620721.0</v>
       </c>
-      <c r="M179" s="5"/>
-      <c r="N179" s="5"/>
+      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
     </row>
     <row r="180">
       <c r="A180" s="5">
@@ -12428,22 +13763,29 @@
         <v>500.0</v>
       </c>
       <c r="E180" s="5">
+        <v>596842.0</v>
+      </c>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H180" s="5">
         <v>732453.0</v>
       </c>
-      <c r="G180" s="5">
+      <c r="J180" s="5">
         <v>377.0</v>
       </c>
-      <c r="H180" s="5">
+      <c r="K180" s="5">
         <v>882057.0</v>
       </c>
-      <c r="J180" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K180" s="5">
+      <c r="M180" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N180" s="5">
         <v>1620693.0</v>
       </c>
-      <c r="M180" s="5"/>
-      <c r="N180" s="5"/>
+      <c r="P180" s="5"/>
+      <c r="Q180" s="5"/>
     </row>
     <row r="181">
       <c r="A181" s="5">
@@ -12456,22 +13798,29 @@
         <v>500.0</v>
       </c>
       <c r="E181" s="5">
+        <v>594199.0</v>
+      </c>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H181" s="5">
         <v>731158.0</v>
       </c>
-      <c r="G181" s="5">
+      <c r="J181" s="5">
         <v>30.0</v>
       </c>
-      <c r="H181" s="5">
+      <c r="K181" s="5">
         <v>70194.0</v>
       </c>
-      <c r="J181" s="5">
+      <c r="M181" s="5">
         <v>424.0</v>
       </c>
-      <c r="K181" s="5">
+      <c r="N181" s="5">
         <v>1373596.0</v>
       </c>
-      <c r="M181" s="5"/>
-      <c r="N181" s="5"/>
+      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
     </row>
     <row r="182">
       <c r="A182" s="5">
@@ -12481,25 +13830,32 @@
         <v>9342.0</v>
       </c>
       <c r="D182" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E182" s="5">
+        <v>591172.0</v>
+      </c>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5">
         <v>460.0</v>
       </c>
-      <c r="E182" s="5">
+      <c r="H182" s="5">
         <v>668577.0</v>
       </c>
-      <c r="G182" s="5">
+      <c r="J182" s="5">
         <v>28.0</v>
       </c>
-      <c r="H182" s="5">
+      <c r="K182" s="5">
         <v>65358.0</v>
       </c>
-      <c r="J182" s="5">
+      <c r="M182" s="5">
         <v>5.0</v>
       </c>
-      <c r="K182" s="5">
+      <c r="N182" s="5">
         <v>14792.0</v>
       </c>
-      <c r="M182" s="5"/>
-      <c r="N182" s="5"/>
+      <c r="P182" s="5"/>
+      <c r="Q182" s="5"/>
     </row>
     <row r="183">
       <c r="A183" s="5">
@@ -12509,25 +13865,32 @@
         <v>9342.0</v>
       </c>
       <c r="D183" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E183" s="5">
+        <v>587718.0</v>
+      </c>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5">
         <v>5.0</v>
       </c>
-      <c r="E183" s="5">
+      <c r="H183" s="5">
         <v>6074.0</v>
       </c>
-      <c r="G183" s="5">
+      <c r="J183" s="5">
         <v>23.0</v>
       </c>
-      <c r="H183" s="5">
+      <c r="K183" s="5">
         <v>53870.0</v>
       </c>
-      <c r="J183" s="5">
+      <c r="M183" s="5">
         <v>61.0</v>
       </c>
-      <c r="K183" s="5">
+      <c r="N183" s="5">
         <v>197325.0</v>
       </c>
-      <c r="M183" s="5"/>
-      <c r="N183" s="5"/>
+      <c r="P183" s="5"/>
+      <c r="Q183" s="5"/>
     </row>
     <row r="184">
       <c r="A184" s="5">
@@ -12537,25 +13900,32 @@
         <v>9340.0</v>
       </c>
       <c r="D184" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E184" s="5">
+        <v>584098.0</v>
+      </c>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5">
         <v>5.0</v>
       </c>
-      <c r="E184" s="5">
+      <c r="H184" s="5">
         <v>6073.0</v>
       </c>
-      <c r="G184" s="5">
+      <c r="J184" s="5">
         <v>15.0</v>
       </c>
-      <c r="H184" s="5">
+      <c r="K184" s="5">
         <v>34954.0</v>
       </c>
-      <c r="J184" s="5">
+      <c r="M184" s="5">
         <v>83.0</v>
       </c>
-      <c r="K184" s="5">
+      <c r="N184" s="5">
         <v>268724.0</v>
       </c>
-      <c r="M184" s="5"/>
-      <c r="N184" s="5"/>
+      <c r="P184" s="5"/>
+      <c r="Q184" s="5"/>
     </row>
     <row r="185">
       <c r="A185" s="5">
@@ -12565,25 +13935,32 @@
         <v>9340.0</v>
       </c>
       <c r="D185" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E185" s="5">
+        <v>583229.0</v>
+      </c>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5">
         <v>5.0</v>
       </c>
-      <c r="E185" s="5">
+      <c r="H185" s="5">
         <v>6095.0</v>
       </c>
-      <c r="G185" s="5">
+      <c r="J185" s="5">
         <v>9.0</v>
       </c>
-      <c r="H185" s="5">
+      <c r="K185" s="5">
         <v>20907.0</v>
       </c>
-      <c r="J185" s="5">
+      <c r="M185" s="5">
         <v>32.0</v>
       </c>
-      <c r="K185" s="5">
+      <c r="N185" s="5">
         <v>103765.0</v>
       </c>
-      <c r="M185" s="5"/>
-      <c r="N185" s="5"/>
+      <c r="P185" s="5"/>
+      <c r="Q185" s="5"/>
     </row>
     <row r="186">
       <c r="A186" s="5">
@@ -12593,25 +13970,32 @@
         <v>9340.0</v>
       </c>
       <c r="D186" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E186" s="5">
+        <v>579414.0</v>
+      </c>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5">
         <v>5.0</v>
       </c>
-      <c r="E186" s="5">
+      <c r="H186" s="5">
         <v>6096.0</v>
       </c>
-      <c r="G186" s="5">
+      <c r="J186" s="5">
         <v>7.0</v>
       </c>
-      <c r="H186" s="5">
+      <c r="K186" s="5">
         <v>16246.0</v>
       </c>
-      <c r="J186" s="5">
+      <c r="M186" s="5">
         <v>41.0</v>
       </c>
-      <c r="K186" s="5">
+      <c r="N186" s="5">
         <v>132902.0</v>
       </c>
-      <c r="M186" s="5"/>
-      <c r="N186" s="5"/>
+      <c r="P186" s="5"/>
+      <c r="Q186" s="5"/>
     </row>
     <row r="187">
       <c r="A187" s="5">
@@ -12621,25 +14005,32 @@
         <v>9341.0</v>
       </c>
       <c r="D187" s="5">
+        <v>195.0</v>
+      </c>
+      <c r="E187" s="5">
+        <v>225393.0</v>
+      </c>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5">
         <v>59.0</v>
       </c>
-      <c r="E187" s="5">
+      <c r="H187" s="5">
         <v>85830.0</v>
       </c>
-      <c r="G187" s="5">
+      <c r="J187" s="5">
         <v>8.0</v>
       </c>
-      <c r="H187" s="5">
+      <c r="K187" s="5">
         <v>18538.0</v>
       </c>
-      <c r="J187" s="5">
+      <c r="M187" s="5">
         <v>45.0</v>
       </c>
-      <c r="K187" s="5">
+      <c r="N187" s="5">
         <v>145989.0</v>
       </c>
-      <c r="M187" s="5"/>
-      <c r="N187" s="5"/>
+      <c r="P187" s="5"/>
+      <c r="Q187" s="5"/>
     </row>
     <row r="188">
       <c r="A188" s="5">
@@ -12649,25 +14040,32 @@
         <v>9340.0</v>
       </c>
       <c r="D188" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E188" s="5">
+        <v>5615.0</v>
+      </c>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5">
         <v>64.0</v>
       </c>
-      <c r="E188" s="5">
+      <c r="H188" s="5">
         <v>92704.0</v>
       </c>
-      <c r="G188" s="5">
+      <c r="J188" s="5">
         <v>87.0</v>
       </c>
-      <c r="H188" s="5">
+      <c r="K188" s="5">
         <v>204640.0</v>
       </c>
-      <c r="J188" s="5">
+      <c r="M188" s="5">
         <v>36.0</v>
       </c>
-      <c r="K188" s="5">
+      <c r="N188" s="5">
         <v>116558.0</v>
       </c>
-      <c r="M188" s="5"/>
-      <c r="N188" s="5"/>
+      <c r="P188" s="5"/>
+      <c r="Q188" s="5"/>
     </row>
     <row r="189">
       <c r="A189" s="5">
@@ -12677,25 +14075,32 @@
         <v>9340.0</v>
       </c>
       <c r="D189" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E189" s="5">
+        <v>5615.0</v>
+      </c>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5">
         <v>66.0</v>
       </c>
-      <c r="E189" s="5">
+      <c r="H189" s="5">
         <v>95729.0</v>
       </c>
-      <c r="G189" s="5">
+      <c r="J189" s="5">
         <v>89.0</v>
       </c>
-      <c r="H189" s="5">
+      <c r="K189" s="5">
         <v>209540.0</v>
       </c>
-      <c r="J189" s="5">
+      <c r="M189" s="5">
         <v>54.0</v>
       </c>
-      <c r="K189" s="5">
+      <c r="N189" s="5">
         <v>174868.0</v>
       </c>
-      <c r="M189" s="5"/>
-      <c r="N189" s="5"/>
+      <c r="P189" s="5"/>
+      <c r="Q189" s="5"/>
     </row>
     <row r="190">
       <c r="A190" s="5">
@@ -12705,25 +14110,32 @@
         <v>9340.0</v>
       </c>
       <c r="D190" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E190" s="5">
+        <v>4836.0</v>
+      </c>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5">
         <v>52.0</v>
       </c>
-      <c r="E190" s="5">
+      <c r="H190" s="5">
         <v>75395.0</v>
       </c>
-      <c r="G190" s="5">
+      <c r="J190" s="5">
         <v>100.0</v>
       </c>
-      <c r="H190" s="5">
+      <c r="K190" s="5">
         <v>235416.0</v>
       </c>
-      <c r="J190" s="5">
+      <c r="M190" s="5">
         <v>57.0</v>
       </c>
-      <c r="K190" s="5">
+      <c r="N190" s="5">
         <v>184562.0</v>
       </c>
-      <c r="M190" s="5"/>
-      <c r="N190" s="5"/>
+      <c r="P190" s="5"/>
+      <c r="Q190" s="5"/>
     </row>
     <row r="191">
       <c r="A191" s="5">
@@ -12733,25 +14145,32 @@
         <v>9341.0</v>
       </c>
       <c r="D191" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E191" s="5">
+        <v>4857.0</v>
+      </c>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5">
         <v>42.0</v>
       </c>
-      <c r="E191" s="5">
+      <c r="H191" s="5">
         <v>60943.0</v>
       </c>
-      <c r="G191" s="5">
+      <c r="J191" s="5">
         <v>83.0</v>
       </c>
-      <c r="H191" s="5">
+      <c r="K191" s="5">
         <v>195590.0</v>
       </c>
-      <c r="J191" s="5">
+      <c r="M191" s="5">
         <v>55.0</v>
       </c>
-      <c r="K191" s="5">
+      <c r="N191" s="5">
         <v>178046.0</v>
       </c>
-      <c r="M191" s="5"/>
-      <c r="N191" s="5"/>
+      <c r="P191" s="5"/>
+      <c r="Q191" s="5"/>
     </row>
     <row r="192">
       <c r="A192" s="5">
@@ -12761,41 +14180,54 @@
         <v>9340.0</v>
       </c>
       <c r="D192" s="5">
+        <v>47.0</v>
+      </c>
+      <c r="E192" s="5">
+        <v>54466.0</v>
+      </c>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5">
         <v>32.0</v>
       </c>
-      <c r="E192" s="5">
+      <c r="H192" s="5">
         <v>46555.0</v>
       </c>
-      <c r="G192" s="5">
+      <c r="J192" s="5">
         <v>29.0</v>
       </c>
-      <c r="H192" s="5">
+      <c r="K192" s="5">
         <v>68204.0</v>
       </c>
-      <c r="J192" s="5">
+      <c r="M192" s="5">
         <v>51.0</v>
       </c>
-      <c r="K192" s="5">
+      <c r="N192" s="5">
         <v>165021.0</v>
       </c>
-      <c r="M192" s="5"/>
-      <c r="N192" s="5"/>
+      <c r="P192" s="5"/>
+      <c r="Q192" s="5"/>
     </row>
     <row r="193">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
-      <c r="J193" s="8"/>
-      <c r="K193" s="8"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
+      <c r="H193" s="8"/>
+      <c r="M193" s="8"/>
+      <c r="N193" s="8"/>
     </row>
     <row r="194">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
-      <c r="J194" s="8"/>
-      <c r="K194" s="8"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
+      <c r="H194" s="8"/>
+      <c r="M194" s="8"/>
+      <c r="N194" s="8"/>
     </row>
     <row r="195">
       <c r="A195" s="5"/>
@@ -12822,7 +14254,11 @@
       <c r="B200" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
